--- a/clean_chrr-wphi/output/my_dictionary_v2.xlsx
+++ b/clean_chrr-wphi/output/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="732">
   <si>
     <t>variable</t>
   </si>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is calculated by the NCHS, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly using the Mortality-All County micro-data.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumulative number of years of potential life lost from deaths among county residents under age 75 (summed over three years).</t>
+    <t xml:space="preserve">Cumulative number of years of potential life lost from deaths among county residents under age 75 (summed over three years). For example, a person dying at age 25 contributes 50 years of life lost whereas a person who dies at age 65 contributes 10 years of life lost to a county's YPLL.</t>
   </si>
   <si>
     <t xml:space="preserve">Aggregate population under age 75 (over the three years) using bridged--race-postcensal estimates released by NCHS.</t>
@@ -90,90 +90,96 @@
     <t xml:space="preserve">Starting in 2020, each observation gets marked as unreliable or suppressed. A value of 0 means no flag is set, a value of 1 means the value is unreliable (based on death counts of 20 or less), and a value of 2 means the value was suppressed (9 or fewer deaths). As far as I can tell, earlier unreliable values are not reported as such.</t>
   </si>
   <si>
+    <t xml:space="preserve">see notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the longitudinal data documentation, </t>
+  </si>
+  <si>
+    <t>poor_or_fair_health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults reporting fair or poor health.</t>
+  </si>
+  <si>
+    <t>brfss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behavioral risk factor surveillance system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRFSS is a state-based random digit dial telephone survey that is conducted annually in all states, the District of Columbia, and U.S. territories. Starting in 2011, respondents from landline telephones and cellphones were included. Data obtained from the BRFSS are representative of each state’s total non-institutionalized population over 18 years of age. Data are weighted using iterative proportional fitting (also called "raking") methods to reflect population distributions. Measures are age-adjusted to the 2000 U.S. standard population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of respondents who answered "Would you say that in general your health is Excellent/Very good/Good/Fair/Poor?" with fair or poor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of adult respondents in a county.</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the 2016 County Health Rankings, up to seven survey years of landline only BRFSS data were aggregated to produce county estimates. For the 2016 County Health Rankings and beyond, the CDC produced county estimates using single-year BRFSS data (including both landline and cellphone users) and a multilevel modeling approach based on respondent answers and their age, sex, and race/ethnicity, combined with county-level poverty, as well as county- and state-level contextual effects. To produce estimates for those counties where there were no or limited data, the modeling approach borrowed information from the entire BRFSS sample as well as Census Vintage population estimates. CDC used a parametric bootstrapping method to produce standard errors and confidence intervals for those point estimates. This estimation methodology was validated for all U.S. counties, including those with no or small (&lt; 50 respondents) samples. For the 2021 Rankings, the CDC has updated their modeling procedure for producing small-area estimates. With the PLACES project, a multilevel statistical modeling framework using multilevel regression and poststratification (MRP) is performed for small-area estimation that links BRFSS data with high spatial resolution population demographic and socioeconomic data from the Census’ American Community Survey (ACS). The CDC has performed internal and external validation studies, which confirm strong consistency between their model-based estimates and the direct BRFSS survey estimates at both the state and county levels.</t>
+  </si>
+  <si>
+    <t>discontinuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2015; 2016-2020; 2021-2023.</t>
+  </si>
+  <si>
+    <t>poor_physical_health_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of physically unhealthy days reported in the past 30 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of days respondents reported to the question, “Now thinking about your physical health, which includes physical illness and injury, for how many days during the past 30 days was your physical health not good?”</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>poor_mental_health_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of mentally unhealthy days reported in past 30 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of days respondents reported to the question, "Now thinking about your mental health, which includes stress, depression, and problems with emotions, for how many days during the past 30 days was your mental health not good?"</t>
+  </si>
+  <si>
+    <t>low_birthweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of live births where the infant weighed less than 2,500 grams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is provided through the Health Indicators Warehouse, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of live births for which the infant weighed less than 2,500 grams over seven years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of live births for which weight was recorded over seven years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2020-2023, I change the flag name from lbw to low_birthweight to match the full variable name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counties with fewer than 20 live births or fewer than 10 low birthweight births are reported as missing, Starting in 2020, each observation gets marked as unreliable or not. Observations are unreliable if, the relative standard error for the estimate is greater than 20% or if the number of LBW births is less than 20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For counties with between 20 and 99 births a gamma adjustment from the poisson distribution is used to calculate the CIs. For counties with 100 births or more CIs are calulated according to the normal distribution. Standard errors (SE) and birth rates for each age group are calculated. These SEs are squared and multiplied by the square of the weights and then divided by the total number of births over all age groups. The sum of these provides the variance of the estimate for each county. The square root of the variance gives the standard deviation which is then used as estimate +/- 1.96*STDE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Births are counted in the county corresponding to the mother’s address on the child’s birth certificate, regardless of where the child was born.</t>
+  </si>
+  <si>
     <t>continuous</t>
   </si>
   <si>
-    <t>poor_or_fair_health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of adults reporting fair or poor health.</t>
-  </si>
-  <si>
-    <t>brfss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behavioral risk factor surveillance system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRFSS is a state-based random digit dial telephone survey that is conducted annually in all states, the District of Columbia, and U.S. territories. Data obtained from the BRFSS are representative of each state’s total non-institutionalized population over 18 years of age. Data are weighted using iterative proportional fitting (also called "raking") methods to reflect population distributions. Measures are age-adjusted to the 2000 U.S. standard population.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the total number of respondents who answered "Would you say that in general your health is Excellent/Very good/Good/Fair/Poor?" with fair or poor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The denominator is the total number of adult respondents in a county.</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prior to the 2016 County Health Rankings, up to seven survey years of landline only BRFSS data were aggregated to produce county estimates. For the 2016 County Health Rankings and beyond, the CDC produced county estimates using single-year BRFSS data and a multilevel modeling approach based on respondent answers and their age, sex, and race/ethnicity, combined with county-level poverty, as well as county- and state-level contextual effects. To produce estimates for those counties where there were no or limited data, the modeling approach borrowed information from the entire BRFSS sample as well as Census Vintage population estimates. CDC used a parametric bootstrapping method to produce standard errors and confidence intervals for those point estimates. This estimation methodology was validated for all U.S. counties, including those with no or small (&lt; 50 respondents) samples. For the 2021 Rankings, the CDC has updated their modeling procedure for producing small-area estimates. With the PLACES project, a multilevel statistical modeling framework using multilevel regression and poststratification (MRP) is performed for small-area estimation that links BRFSS data with high spatial resolution population demographic and socioeconomic data from the Census’ American Community Survey (ACS). The CDC has performed internal and external validation studies, which confirm strong consistency between their model-based estimates and the direct BRFSS survey estimates at both the state and county levels.</t>
-  </si>
-  <si>
-    <t>discontinuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2015; 2016-2020; 2021-2023.</t>
-  </si>
-  <si>
-    <t>poor_physical_health_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average number of physically unhealthy days reported in the past 30 days.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the total number of days respondents reported to the question, “Now thinking about your physical health, which includes physical illness and injury, for how many days during the past 30 days was your physical health not good?”</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>poor_mental_health_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average number of mentally unhealthy days reported in past 30 days.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the total number of days respondents reported to the question, "Now thinking about your mental health, which includes stress, depression, and problems with emotions, for how many days during the past 30 days was your mental health not good?"</t>
-  </si>
-  <si>
-    <t>low_birthweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of live births where the infant weighed less than 2,500 grams.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is provided through the Health Indicators Warehouse, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the number of live births for which the infant weighed less than 2,500 grams over seven years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The denominator is the total number of live births for which weight was recorded over seven years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 2020-2023, I change the flag name from lbw to low_birthweight to match the full variable name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counties with fewer than 20 live births or fewer than 10 low birthweight births are reported as missing, Starting in 2020, each observation gets marked as unreliable or not. Observations are unreliable if, the relative standard error for the estimate is greater than 20% or if the number of LBW births is less than 20.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For counties with between 20 and 99 births a gamma adjustment from the poisson distribution is used to calculate the CIs. For counties with 100 births or more CIs are calulated according to the normal distribution. Standard errors (SE) and birth rates for each age group are calculated. These SEs are squared and multiplied by the square of the weights and then divided by the total number of births over all age groups. The sum of these provides the variance of the estimate for each county. The square root of the variance gives the standard deviation which is then used as estimate +/- 1.96*STDE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Births are counted in the county corresponding to the mother’s address on the child’s birth certificate, regardless of where the child was born.</t>
-  </si>
-  <si>
     <t>adult_smoking</t>
   </si>
   <si>
@@ -201,7 +207,7 @@
     <t xml:space="preserve">The denominator is the number of adult respondents age 18 and older.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2021; 2022-2023.</t>
+    <t xml:space="preserve">I think the following time comparisons would be appropriate: 2010-2021; 2022-2023. The documentation provided by the data providers makes it seem as if estimates from the BRFSS can be compared to the estimates from the CDC Diabetes Interactive Atlas and the US Diabetes Surveillance System, but this is a guess on my part.</t>
   </si>
   <si>
     <t>food_environment_index</t>
@@ -339,9 +345,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">see notes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data provider states that this measure can be compared across all time periods available although they do not recommend it stating that due to the scaled nature of the measure, it is impossible to track county progress.</t>
   </si>
   <si>
@@ -360,7 +363,7 @@
     <t xml:space="preserve">The denominator is the number of BRFSS respondents age 18 and older.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data provider recommends the following time comparisons: 2012-2021; 2022-2023.</t>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2012-2021; 2022-2023. The documentation provided by the data providers makes it seem as if estimates from the BRFSS can be compared to the estimates from the CDC Diabetes Interactive Atlas and the US Diabetes Surveillance System, but this is a guess on my part.</t>
   </si>
   <si>
     <t>access_to_exercise_opportunities</t>
@@ -396,7 +399,10 @@
     <t xml:space="preserve">Percentage of a county’s adult population that reports binge or heavy drinking in the past 30 days.</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of adult respondents reporting either binge drinking or heavy drinking. Binge drinking is defined as a woman consuming more than four alcoholic drinks during a single occasion or a man consuming more than five alcoholic drinks during a single occasion. Heavy drinking is defined as a woman drinking more than one drink on average per day or a man drinking more than two drinks on average per day.</t>
+    <t xml:space="preserve">Number of adult respondents reporting either binge drinking or heavy drinking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binge drinking is defined as a woman consuming more than four alcoholic drinks during a single occasion or a man consuming more than five alcoholic drinks during a single occasion. Heavy drinking is defined as a woman drinking more than one drink on average per day or a man drinking more than two drinks on average per day.</t>
   </si>
   <si>
     <t xml:space="preserve">Data provider recommends the following time comparisons: 2011-2015; 2016-2020; 2021-2023.</t>
@@ -408,7 +414,7 @@
     <t xml:space="preserve">Percent of adults that report binge drinking in the past 30 days. </t>
   </si>
   <si>
-    <t xml:space="preserve">The documentation does not defintively state how this measure is different from excessive_drinking, but my guess is this measure captures only binge drinking ratherr than binge and heavy drinking.</t>
+    <t xml:space="preserve">The documentation does not defintively state how this measure is different from excessive_drinking, but my guess is this measure captures only binge drinking rather than binge and heavy drinking.</t>
   </si>
   <si>
     <t>unclear</t>
@@ -1219,7 +1225,7 @@
     <t xml:space="preserve">The numerator is the number of adults responded "yes" to the question, "Has a doctor ever told you that you have diabetes?" Both Type 1 and Type 2 diabetes diagnoses are included. Women who indicated that they only had diabetes during pregnancy were not considered to have diabetes.</t>
   </si>
   <si>
-    <t xml:space="preserve">Since this is not a ranked measure, the data provider has not provided explicit instructions on which years can be compared. Based on the documentation and looking at the data, I believe the following comparisons could be made: 2011-2021; 2022-2023.</t>
+    <t xml:space="preserve">Since this is not a ranked measure, the data provider has not provided explicit instructions on which years can be compared. Based on the documentation and looking at the data, I think the following comparisons can be made: 2011-2021; 2022-2023. This is based on the assumption that estimates from the BRFSS can be compared to the estimates from the CDC Diabetes Interactive Atlas and the US Diabetes Surveillance System.</t>
   </si>
   <si>
     <t>hiv_prevalence</t>
@@ -3026,7 +3032,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -3119,7 +3125,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -3137,149 +3143,151 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" ht="285">
+    <row r="3" ht="299.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
+      <c r="M3" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" ht="285">
+    <row r="4" ht="299.25">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
+      <c r="M4" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" ht="285">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="299.25">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>34</v>
+      <c r="M5" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
     <row r="6" ht="114">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -3288,378 +3296,389 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" ht="285">
+    <row r="7" ht="299.25">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="M7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="N7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="213.75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="299.25">
       <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>59</v>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>62</v>
+      <c r="O8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="299.25">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" ht="185.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" ht="299.25">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>78</v>
+      <c r="O10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="171">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" ht="285">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" ht="299.25">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>90</v>
+      <c r="G12" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" ht="299.25">
+      <c r="A13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" ht="128.25">
-      <c r="A13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" ht="114">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" ht="71.25">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -3668,24 +3687,24 @@
         <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" ht="114">
       <c r="A16" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
@@ -3694,14 +3713,14 @@
         <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -3710,258 +3729,258 @@
         <v>23</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" ht="28.5">
       <c r="A17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P17" s="1"/>
     </row>
     <row r="18" ht="213.75">
       <c r="A18" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R18" s="1"/>
     </row>
     <row r="19" ht="128.25">
       <c r="A19" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" ht="171">
       <c r="A20" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R20" s="1"/>
     </row>
     <row r="21" ht="242.25">
       <c r="A21" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>161</v>
+        <v>135</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" ht="114">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -3970,410 +3989,410 @@
         <v>23</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" ht="71.25">
       <c r="A23" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P23" s="1"/>
     </row>
     <row r="24" ht="71.25">
       <c r="A24" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" ht="57">
       <c r="A25" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P25" s="1"/>
     </row>
     <row r="26" ht="42.75">
       <c r="A26" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P26" s="1"/>
     </row>
     <row r="27" ht="42.75">
       <c r="A27" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P27" s="1"/>
     </row>
     <row r="28" ht="199.5">
       <c r="A28" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="71.25">
       <c r="A29" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="142.5">
       <c r="A30" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" ht="57">
       <c r="A31" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" ht="185.25">
       <c r="A32" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" ht="57">
       <c r="A33" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" ht="57">
       <c r="A34" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -4382,18 +4401,18 @@
         <v>23</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" ht="114">
       <c r="A35" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>18</v>
@@ -4405,10 +4424,10 @@
         <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -4417,71 +4436,71 @@
         <v>23</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" ht="213.75">
       <c r="A36" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" ht="28.5">
       <c r="A37" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -4490,27 +4509,27 @@
         <v>23</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" ht="28.5">
       <c r="A38" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -4519,283 +4538,283 @@
         <v>23</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" ht="57">
       <c r="A39" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" ht="57">
       <c r="A40" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" ht="71.25">
       <c r="A41" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" ht="42.75">
       <c r="A42" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" ht="28.5">
       <c r="A43" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" ht="42.75">
       <c r="A44" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" ht="28.5">
       <c r="A45" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" ht="42.75">
       <c r="A46" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" ht="114">
       <c r="A47" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>18</v>
@@ -4807,33 +4826,33 @@
         <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" ht="114">
       <c r="A48" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>18</v>
@@ -4845,10 +4864,10 @@
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -4857,21 +4876,21 @@
         <v>23</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="114">
       <c r="A49" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>18</v>
@@ -4883,10 +4902,10 @@
         <v>20</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -4895,21 +4914,21 @@
         <v>23</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" ht="114">
       <c r="A50" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>18</v>
@@ -4921,10 +4940,10 @@
         <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -4933,153 +4952,153 @@
         <v>23</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" ht="285">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" ht="299.25">
       <c r="A51" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" ht="299.25">
+      <c r="A52" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" ht="285">
-      <c r="A52" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" ht="299.25">
+      <c r="A53" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="53" ht="285">
-      <c r="A53" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>340</v>
+      <c r="O53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="54" ht="114">
       <c r="A54" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -5088,97 +5107,97 @@
         <v>23</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" ht="142.5">
       <c r="A55" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" ht="213.75">
       <c r="A56" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" ht="142.5">
       <c r="A57" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>18</v>
@@ -5190,10 +5209,10 @@
         <v>20</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -5202,24 +5221,24 @@
         <v>23</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" ht="85.5">
       <c r="A58" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>18</v>
@@ -5228,33 +5247,33 @@
         <v>19</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" ht="28.5">
       <c r="A59" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>18</v>
@@ -5263,647 +5282,647 @@
         <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" ht="28.5">
       <c r="A60" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" ht="28.5">
       <c r="A61" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" ht="128.25">
       <c r="A62" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q62" s="1"/>
     </row>
     <row r="63" ht="213.75">
       <c r="A63" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" ht="42.75">
       <c r="A64" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G65" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H65" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="G66" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H66" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L68" s="1"/>
       <c r="O68" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
@@ -5912,21 +5931,21 @@
         <v>23</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>18</v>
@@ -5938,10 +5957,10 @@
         <v>20</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
@@ -5950,21 +5969,21 @@
         <v>23</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>18</v>
@@ -5976,10 +5995,10 @@
         <v>20</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I79" s="1">
         <v>1</v>
@@ -5988,21 +6007,21 @@
         <v>23</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>18</v>
@@ -6012,35 +6031,35 @@
       </c>
       <c r="E80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>18</v>
@@ -6052,10 +6071,10 @@
         <v>20</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -6064,21 +6083,21 @@
         <v>23</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>18</v>
@@ -6090,13 +6109,13 @@
         <v>20</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
@@ -6105,39 +6124,39 @@
         <v>23</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
@@ -6146,804 +6165,804 @@
         <v>23</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I89" s="1">
         <v>0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I92" s="1">
         <v>0</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I93" s="1">
         <v>0</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="I94" s="1">
         <v>0</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I96" s="1">
         <v>0</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" ht="14.25">
       <c r="A98" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I98" s="1">
         <v>0</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I100" s="1">
         <v>0</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" ht="14.25">
       <c r="A101" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M101" s="1"/>
       <c r="O101" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P101" s="1"/>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="105" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I105" s="1">
         <v>0</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -6952,173 +6971,173 @@
         <v>23</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E109" s="1"/>
       <c r="G109" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E110" s="1"/>
       <c r="G110" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P110" s="1"/>
     </row>
     <row r="111" ht="14.25">
       <c r="A111" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P111" s="1"/>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I112" s="1">
         <v>0</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="I113" s="1">
         <v>0</v>
@@ -7129,71 +7148,71 @@
       <c r="K113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="114" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E114" s="1"/>
       <c r="G114" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K114" s="5" t="s">
-        <v>644</v>
+        <v>34</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="L114" s="1"/>
       <c r="N114" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="115" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E115" s="1"/>
       <c r="G115" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -7205,49 +7224,49 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P115" s="1"/>
     </row>
     <row r="116" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P116" s="1"/>
     </row>
     <row r="117" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>18</v>
@@ -7257,10 +7276,10 @@
       </c>
       <c r="E117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
@@ -7272,2013 +7291,2013 @@
       <c r="L117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P117" s="1"/>
     </row>
     <row r="118" ht="14.25">
       <c r="A118" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="I118" s="1">
         <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="119" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122" ht="14.25">
       <c r="A122" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N122" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="O122" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="124" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N128" s="5" t="s">
-        <v>676</v>
+        <v>375</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N129" s="5" t="s">
-        <v>676</v>
+        <v>375</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N130" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N130" s="5" t="s">
-        <v>676</v>
-      </c>
       <c r="O130" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N131" s="5" t="s">
-        <v>676</v>
+        <v>375</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N132" s="5" t="s">
-        <v>676</v>
+        <v>375</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N133" s="5" t="s">
-        <v>676</v>
+        <v>375</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N134" s="5" t="s">
-        <v>676</v>
+        <v>375</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="135" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="137" ht="14.25">
       <c r="A137" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N137" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="O137" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="139" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="140" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K140" s="1"/>
       <c r="N140" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" ht="14.25">
       <c r="A141" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="142" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="143" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="144" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="146" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="147" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="150" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" ht="14.25">
       <c r="A152" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="154" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="155" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="156" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="157" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="158" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="159" ht="14.25">
       <c r="A159" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="160" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="161" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="163" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="165" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="167" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="168" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="169" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="170" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="171" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="172" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="174" ht="14.25">
       <c r="A174" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="175" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="176" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="177" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="178" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="179" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/clean_chrr-wphi/output/my_dictionary_v2.xlsx
+++ b/clean_chrr-wphi/output/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="775">
   <si>
     <t>variable</t>
   </si>
@@ -63,6 +63,12 @@
     <t>compare_time_notes</t>
   </si>
   <si>
+    <t>longitudinal_data_notes</t>
+  </si>
+  <si>
+    <t>time_trend_visual_inspection</t>
+  </si>
+  <si>
     <t>premature_death</t>
   </si>
   <si>
@@ -90,124 +96,142 @@
     <t xml:space="preserve">Starting in 2020, each observation gets marked as unreliable or suppressed. A value of 0 means no flag is set, a value of 1 means the value is unreliable (based on death counts of 20 or less), and a value of 2 means the value was suppressed (9 or fewer deaths). As far as I can tell, earlier unreliable values are not reported as such.</t>
   </si>
   <si>
+    <t xml:space="preserve">continuous; discontinuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the longitudinal data, data is provided which predates the earliest County Health Rankings &amp; Roadmap data release. Data provider recommends the following time comparisons: (1997-1999) - (2003-2005); (2004-2006) - (2018-2020). The documentation is not super clear as to why the following time periods cannot be compared. They mentioned changes in the denominator used, but they do not clearly explain how the denominator changed.</t>
+  </si>
+  <si>
+    <t>poor_or_fair_health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults reporting fair or poor health.</t>
+  </si>
+  <si>
+    <t>brfss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behavioral risk factor surveillance system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRFSS is a state-based random digit dial telephone survey that is conducted annually in all states, the District of Columbia, and U.S. territories. Starting in 2011, respondents from landline telephones and cellphones were included. Data obtained from the BRFSS are representative of each state’s total non-institutionalized population over 18 years of age. Data are weighted using iterative proportional fitting (also called "raking") methods to reflect population distributions. Measures are age-adjusted to the 2000 U.S. standard population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of respondents who answered "Would you say that in general your health is Excellent/Very good/Good/Fair/Poor?" with fair or poor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of adult respondents in a county.</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the 2016 County Health Rankings, up to seven survey years of landline only BRFSS data were aggregated to produce county estimates. For the 2016 County Health Rankings and beyond, the CDC produced county estimates using single-year BRFSS data (including both landline and cellphone users) and a multilevel modeling approach based on respondent answers and their age, sex, and race/ethnicity, combined with county-level poverty, as well as county- and state-level contextual effects. To produce estimates for those counties where there were no or limited data, the modeling approach borrowed information from the entire BRFSS sample as well as Census Vintage population estimates. CDC used a parametric bootstrapping method to produce standard errors and confidence intervals for those point estimates. This estimation methodology was validated for all U.S. counties, including those with no or small (&lt; 50 respondents) samples. For the 2021 Rankings, the CDC has updated their modeling procedure for producing small-area estimates. With the PLACES project, a multilevel statistical modeling framework using multilevel regression and poststratification (MRP) is performed for small-area estimation that links BRFSS data with high spatial resolution population demographic and socioeconomic data from the Census’ American Community Survey (ACS). The CDC has performed internal and external validation studies, which confirm strong consistency between their model-based estimates and the direct BRFSS survey estimates at both the state and county levels.</t>
+  </si>
+  <si>
+    <t>discontinuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2015; 2016-2020; 2021-2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slight relative decline from 2015 to 2016 (masks state-level variation) and large, uniform, relative increase from 2020 to 2021. Unrelated to the data provider recommended break points, there is a very large, uniform, relative decline from 2022 to 2023.</t>
+  </si>
+  <si>
+    <t>poor_physical_health_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of physically unhealthy days reported in the past 30 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of days respondents reported to the question, “Now thinking about your physical health, which includes physical illness and injury, for how many days during the past 30 days was your physical health not good?”</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>poor_mental_health_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of mentally unhealthy days reported in past 30 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of days respondents reported to the question, "Now thinking about your mental health, which includes stress, depression, and problems with emotions, for how many days during the past 30 days was your mental health not good?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No change from 2015 to 2016 (masks state-level variation) and large, uniform, relative increase from 2020 to 2021.</t>
+  </si>
+  <si>
+    <t>low_birthweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of live births where the infant weighed less than 2,500 grams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is provided through the Health Indicators Warehouse, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of live births for which the infant weighed less than 2,500 grams over seven years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of live births for which weight was recorded over seven years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2020-2023, I change the flag name from lbw to low_birthweight to match the full variable name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counties with fewer than 20 live births or fewer than 10 low birthweight births are reported as missing, Starting in 2020, each observation gets marked as unreliable or not. Observations are unreliable if, the relative standard error for the estimate is greater than 20% or if the number of LBW births is less than 20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For counties with between 20 and 99 births a gamma adjustment from the poisson distribution is used to calculate the CIs. For counties with 100 births or more CIs are calulated according to the normal distribution. Standard errors (SE) and birth rates for each age group are calculated. These SEs are squared and multiplied by the square of the weights and then divided by the total number of births over all age groups. The sum of these provides the variance of the estimate for each county. The square root of the variance gives the standard deviation which is then used as estimate +/- 1.96*STDE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Births are counted in the county corresponding to the mother’s address on the child’s birth certificate, regardless of where the child was born.</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>adult_smoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults who are current smokers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of adult respondents who reported “Yes” to the following question: Have you smoked at least 100 cigarettes in your entire life? and “Every day or some days” to the question: Do you now smoke cigarettes every day, some days, or not at all?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This measure only captures adult usage, and it only asks about cigarrete usage not e-cigarettes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large, uniform, relative decline from 2015 to 2016. Large, uniform, relative increase from 2020 to 2021.</t>
+  </si>
+  <si>
+    <t>adult_obesity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of the adult population (age 18 and older) that reports a body mass index (BMI) greater than or equal to 30 kg/m2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the latest available documentation, it states that the data source changed from US Diabetes Surveillance System to the BRFSS in 2022. However, looking back at older documentation reveals the officially listed documentation changed quite a lot. Starting in 2010, the listed source was the National Center for Chronic Disease Prevention and Promotion. In 2012, the listed source changed to the BRFSS. In 2013, it switched back to the NCCDPHP. In 2014, it switched back to the BRFSS. In 2015, they list the source as the CDC Diabetes Interactive Atlas. From 2016-2019, some documentation lists the BRFSS while other documentation lists the CDC Diabetes Interactive Atlas. Starting in 2020, they list the source as the US Diabetes Surveillance System. Starting in 2022, the listed source is the BRFSS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of adult respondents age 18 and older with a BMI greater than or equal to 30kg/m2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of adult respondents age 18 and older.</t>
+  </si>
+  <si>
     <t xml:space="preserve">see notes</t>
   </si>
   <si>
-    <t xml:space="preserve">In the longitudinal data documentation, </t>
-  </si>
-  <si>
-    <t>poor_or_fair_health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of adults reporting fair or poor health.</t>
-  </si>
-  <si>
-    <t>brfss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behavioral risk factor surveillance system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRFSS is a state-based random digit dial telephone survey that is conducted annually in all states, the District of Columbia, and U.S. territories. Starting in 2011, respondents from landline telephones and cellphones were included. Data obtained from the BRFSS are representative of each state’s total non-institutionalized population over 18 years of age. Data are weighted using iterative proportional fitting (also called "raking") methods to reflect population distributions. Measures are age-adjusted to the 2000 U.S. standard population.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the total number of respondents who answered "Would you say that in general your health is Excellent/Very good/Good/Fair/Poor?" with fair or poor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The denominator is the total number of adult respondents in a county.</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prior to the 2016 County Health Rankings, up to seven survey years of landline only BRFSS data were aggregated to produce county estimates. For the 2016 County Health Rankings and beyond, the CDC produced county estimates using single-year BRFSS data (including both landline and cellphone users) and a multilevel modeling approach based on respondent answers and their age, sex, and race/ethnicity, combined with county-level poverty, as well as county- and state-level contextual effects. To produce estimates for those counties where there were no or limited data, the modeling approach borrowed information from the entire BRFSS sample as well as Census Vintage population estimates. CDC used a parametric bootstrapping method to produce standard errors and confidence intervals for those point estimates. This estimation methodology was validated for all U.S. counties, including those with no or small (&lt; 50 respondents) samples. For the 2021 Rankings, the CDC has updated their modeling procedure for producing small-area estimates. With the PLACES project, a multilevel statistical modeling framework using multilevel regression and poststratification (MRP) is performed for small-area estimation that links BRFSS data with high spatial resolution population demographic and socioeconomic data from the Census’ American Community Survey (ACS). The CDC has performed internal and external validation studies, which confirm strong consistency between their model-based estimates and the direct BRFSS survey estimates at both the state and county levels.</t>
-  </si>
-  <si>
-    <t>discontinuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2015; 2016-2020; 2021-2023.</t>
-  </si>
-  <si>
-    <t>poor_physical_health_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average number of physically unhealthy days reported in the past 30 days.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the total number of days respondents reported to the question, “Now thinking about your physical health, which includes physical illness and injury, for how many days during the past 30 days was your physical health not good?”</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>poor_mental_health_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average number of mentally unhealthy days reported in past 30 days.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the total number of days respondents reported to the question, "Now thinking about your mental health, which includes stress, depression, and problems with emotions, for how many days during the past 30 days was your mental health not good?"</t>
-  </si>
-  <si>
-    <t>low_birthweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of live births where the infant weighed less than 2,500 grams.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is provided through the Health Indicators Warehouse, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the number of live births for which the infant weighed less than 2,500 grams over seven years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The denominator is the total number of live births for which weight was recorded over seven years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 2020-2023, I change the flag name from lbw to low_birthweight to match the full variable name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counties with fewer than 20 live births or fewer than 10 low birthweight births are reported as missing, Starting in 2020, each observation gets marked as unreliable or not. Observations are unreliable if, the relative standard error for the estimate is greater than 20% or if the number of LBW births is less than 20.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For counties with between 20 and 99 births a gamma adjustment from the poisson distribution is used to calculate the CIs. For counties with 100 births or more CIs are calulated according to the normal distribution. Standard errors (SE) and birth rates for each age group are calculated. These SEs are squared and multiplied by the square of the weights and then divided by the total number of births over all age groups. The sum of these provides the variance of the estimate for each county. The square root of the variance gives the standard deviation which is then used as estimate +/- 1.96*STDE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Births are counted in the county corresponding to the mother’s address on the child’s birth certificate, regardless of where the child was born.</t>
-  </si>
-  <si>
-    <t>continuous</t>
-  </si>
-  <si>
-    <t>adult_smoking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of adults who are current smokers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the number of adult respondents who reported “Yes” to the following question: Have you smoked at least 100 cigarettes in your entire life? and “Every day or some days” to the question: Do you now smoke cigarettes every day, some days, or not at all?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This measure only captures adult usage, and it only asks about cigarrete usage not e-cigarettes.</t>
-  </si>
-  <si>
-    <t>adult_obesity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of the adult population (age 18 and older) that reports a body mass index (BMI) greater than or equal to 30 kg/m2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the latest available documentation, it states that the data source changed from US Diabetes Surveillance System to the BRFSS in 2022. However, looking back at older documentation reveals the officially listed documentation changed quite a lot. Starting in 2010, the listed source was the National Center for Chronic Disease Prevention and Promotion. In 2012, the listed source changed to the BRFSS. In 2013, it switched back to the NCCDPHP. In 2014, it switched back to the BRFSS. In 2015, they list the source as the CDC Diabetes Interactive Atlas. From 2016-2019, some documentation lists the BRFSS while other documentation lists the CDC Diabetes Interactive Atlas. Starting in 2020, they list the source as the US Diabetes Surveillance System. Starting in 2022, the listed source is the BRFSS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the number of adult respondents age 18 and older with a BMI greater than or equal to 30kg/m2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The denominator is the number of adult respondents age 18 and older.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I think the following time comparisons would be appropriate: 2010-2021; 2022-2023. The documentation provided by the data providers makes it seem as if estimates from the BRFSS can be compared to the estimates from the CDC Diabetes Interactive Atlas and the US Diabetes Surveillance System, but this is a guess on my part.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The longitudinal data documentation states it is individuals ages 20 and older (not 18 and older). The 2021 longitudinal data documentation lists both the NCCDPHP and the BRFSS as the source of the data. The longitudinal data documentation states the values are not age-adjusted. The longitudinal data also appears to use 3-year average estimates (in contrast to the regular measure which mostly uses single-year estimates), but the documentation says it should be single-year estimates. There is also some ambiguity as to what years can be compared to one another. It states that starting with the 2010 data (unclear if they are referring to the year of release for the data or the County Health Rankings), a new methodology was introduced that included cellphone users, and previous-year estimates should be compared with caution (but can be done). Since the data are 3-year averages, it is hard to know when the breakpoint would occur, if it is even necessary. Additionally, the timing in the methodology change contradicts what other official documentation states (i.e., the methodology was not introduced until 2011).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate, (relatively) uniform, relative increase from 2021 to 2022.</t>
   </si>
   <si>
     <t>food_environment_index</t>
@@ -348,6 +372,9 @@
     <t xml:space="preserve">Data provider states that this measure can be compared across all time periods available although they do not recommend it stating that due to the scaled nature of the measure, it is impossible to track county progress.</t>
   </si>
   <si>
+    <t xml:space="preserve">There appear to be no major disjunctures which would preclude an across-time comparison.</t>
+  </si>
+  <si>
     <t>physical_inactivity</t>
   </si>
   <si>
@@ -366,6 +393,9 @@
     <t xml:space="preserve">Data provider recommends the following time comparisons: 2012-2021; 2022-2023. The documentation provided by the data providers makes it seem as if estimates from the BRFSS can be compared to the estimates from the CDC Diabetes Interactive Atlas and the US Diabetes Surveillance System, but this is a guess on my part.</t>
   </si>
   <si>
+    <t xml:space="preserve">Large, uniform, relative increase from 2021 to 2022. Unrelated to the data provider recommended break points, it appears as if there is a very large, uniform, relative decline from 2022 to 2023.</t>
+  </si>
+  <si>
     <t>access_to_exercise_opportunities</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t xml:space="preserve">Data provider does not recommend using this variable to track progress over time. If one does though, they recommend the following time comparisons: 2014-2017; 2018-2022; 2023. In 2018, data provider switched from using North American Information Classification System (NAICS) codes to Standard Industry Classification (SIC) codes. In 2022, data provider switched from DeLorme map data to ESRI map data. In 2023, data provider switched from using 2010 census blocks and population counts to 2020 census blocks and population counts and used the new 2020 Census Urban Areas to assign urban/rural status to recreational facilities and YMCAs.</t>
   </si>
   <si>
+    <t xml:space="preserve">Moderate, (relatively) uniform, relative increase from 2017 to 2018. Large, uniform, relative increase from 2022 to 2023. Unrelated to the data provider recommended break points, there is a large, uniform, relative decrease from 2021 to 2022, and a very large, uniform, relative increase from 2014 to 2015..</t>
+  </si>
+  <si>
     <t>excessive_drinking</t>
   </si>
   <si>
@@ -408,6 +441,9 @@
     <t xml:space="preserve">Data provider recommends the following time comparisons: 2011-2015; 2016-2020; 2021-2023.</t>
   </si>
   <si>
+    <t xml:space="preserve">No change from 2015 to 2016 (masks state-level variation), and large, (relatively) uniform, relative increase from 2020 to 2021. There are a few othe disjunctures in the data, but they do not appear major.</t>
+  </si>
+  <si>
     <t>binge_drinking</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t xml:space="preserve">Data provider states that this measure can be compared across all time periods available. This measure should not be used with excessive_drinking, though, since the two measures are measuring different things. This variable is only availabe from 2010-2011, and it seems to have been replaced by excessive_drinking.</t>
   </si>
   <si>
+    <t xml:space="preserve">This variable only has two data points and has not been updated since 2011.</t>
+  </si>
+  <si>
     <t>alcohol-impaired_driving_deaths</t>
   </si>
   <si>
@@ -510,6 +549,9 @@
     <t xml:space="preserve">The denominator is the number of people in the county under age 65.</t>
   </si>
   <si>
+    <t xml:space="preserve">Confusingly, the documentation states there are no breaks in the time trend, but the data includes a time break in 2008. However, 2008 is the earliest point in time in which the data is available.</t>
+  </si>
+  <si>
     <t>primary_care_provider_rate</t>
   </si>
   <si>
@@ -546,6 +588,9 @@
     <t xml:space="preserve">Data provider states that this measure can be compared across all time periods available. However, this variable is only available for 2010.</t>
   </si>
   <si>
+    <t xml:space="preserve">This variable only has one data point and has not been updated since 2010.</t>
+  </si>
+  <si>
     <t>primary_care_physicians</t>
   </si>
   <si>
@@ -564,6 +609,9 @@
     <t xml:space="preserve">Data provider recommends the following time comparisons: 2011-2012; 2013-2023. This is because the definition of a primary care provider was updated in 2013 to inlcude D.O.s and remove obstetricians and gynecologists.</t>
   </si>
   <si>
+    <t xml:space="preserve">Very large, uniform, relative decline from 2012 to 2013. Unrelated to the data provider recommended break points, there is a large, relative increase from 2011 to 2012. Many states did not have their value change during this time period, but a few did. I suspect the small number of states which did have their values increase are driving this observed nation-wide relative increase.</t>
+  </si>
+  <si>
     <t>dentists</t>
   </si>
   <si>
@@ -627,6 +675,9 @@
     <t xml:space="preserve">Data provider does not recommend using this variable to track progress. In 2015, marriage and family therapists and mental health providers that treat alcohol and other drug abuse were added to this measure so it is unclear how incomparable the measures are before and after this change. Second, they discovered an error in their estimates from 2014-2016 where they were counting mental health organizations along with mental health providers. The corrected estimates are available from 2015-2016 but not 2014. Thus, there are no estimates available for 2014. Third, this variable was available as an unranked variable from 2011-2013, but it is unclear how comparable estimates are from those years to future years for the above stated reasons and also because the source for the variable was also different (it was hrsa; ahrf). Fourth, there are concerns that many providers that are no longer practicing are not deactivated resulting in an overestimate in the number of practicing providers. If one truly wishes to make cross-time comparisons, one should only use estimates from 2011-2013 or 2015-2023.</t>
   </si>
   <si>
+    <t xml:space="preserve">Very large, uniform, relative increase in values from 2013 to 2015.</t>
+  </si>
+  <si>
     <t>preventable_hospital_stays</t>
   </si>
   <si>
@@ -657,6 +708,12 @@
     <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2018; 2019-2023.</t>
   </si>
   <si>
+    <t xml:space="preserve">The following conditions are considered preventable according to the longitudinal data documentation (slightly different from what is considered preventable in the regular documentation): convulsions, chronic obstructive pulmonary disease, bacterial pneumonia, asthma, congestive heart failure, hypertension, angina, cellulitis, diabetes, gastroenteritis, kidney/urinary infection, and dehydration. However, since the cross-sectional and longitudinal data basically completely match, I believe the longitundinal data documentation (or the regular data documentation) is using the wrong definition of preventable conditions. I think the longitudinal data documentation is accidentally using the older set of preventable conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate, (relatively) uniform, relative decrease in values from 2018 to 2019.</t>
+  </si>
+  <si>
     <t>mammography_screening_65_74</t>
   </si>
   <si>
@@ -678,6 +735,12 @@
     <t xml:space="preserve">Individuals enrolled in Medicare Advantage at any point during the year are excluded. The following Current Procedural Terminology/Healthcare Procedure Coding System codes are used for defining a mammography: 77052, 77057, 77063, G0202.</t>
   </si>
   <si>
+    <t xml:space="preserve">The longitudinal data documentation states this variable represents the percentage of female Medicare Part B enrollees who had at least one mammogram over a two-year period. Since the data from the longitudinal release basically matches the data from the regular release, one of the documentation sets is wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unrelated to the data provider recommended break points, there is a large, uniform, relative decline from 2022 to 2023.</t>
+  </si>
+  <si>
     <t>mammography_screening_67_69</t>
   </si>
   <si>
@@ -702,7 +765,7 @@
     <t xml:space="preserve">Percentage of Medicare part B enrollees who received an annual flu vaccination.</t>
   </si>
   <si>
-    <t xml:space="preserve">The numerator is the number of people  enrolled in Medicare Part B for at least one month of the selected year and who have received a covered influenza vaccine in the last year.</t>
+    <t xml:space="preserve">The numerator is the number of people enrolled in Medicare Part B for at least one month of the selected year and who have received a covered influenza vaccine in the last year.</t>
   </si>
   <si>
     <t xml:space="preserve">The denominator is the number of people enrolled in Medicare Part B for at least one month of the selected year.</t>
@@ -765,6 +828,12 @@
     <t xml:space="preserve">Unemployed persons are defined as persons who had no employment during the reference week, were available for work, except for temporary illness, and had made specific efforts to find employment some time during the 4-week period ending with the reference week. Persons who were waiting to be recalled to a job from which they had been laid off need not have been looking for work to be classified as unemployed. The civilian labor force includes all persons in the civilian noninstitutional population classified as either employed or unemployed. Employed persons are all persons who, during the reference week (the week including the 12th day of the month), (a) did any work as paid employees, worked in their own business or profession or on their own farm, or worked 15 hours or more as unpaid workers in an enterprise operated by a member of their family, or (b) were not working but who had jobs from which they were temporarily absent because of vacation, illness, bad weather, childcare problems, maternity or paternity leave, labor-management dispute, job training, or other family or personal reasons, whether or not they were paid for the time off or were seeking other jobs. Each employed person is counted only once, even if he or she holds more than one job.</t>
   </si>
   <si>
+    <t xml:space="preserve">The longitudinal data indicates there is a break in the time trend in 2012, but none of the documentation (regular or longitudinal) indicates such a break should exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unrelated to the data provider recommended break points, there is a large, uniform, relative increase from 2021 to 2022, and a large, uniform, relative decrease from 2022 to 2023.</t>
+  </si>
+  <si>
     <t>children_in_poverty</t>
   </si>
   <si>
@@ -789,6 +858,9 @@
     <t xml:space="preserve">Poverty status is defined by family; either everyone in the family is in poverty or no one in the family is in poverty. The characteristics of the family used to determine the poverty threshold are: number of people, number of related children under 18, and whether or not the primary householder is over age 65. Family income is then compared to the poverty threshold; if that family’s income is below that threshold, the family is in poverty.</t>
   </si>
   <si>
+    <t xml:space="preserve">The longitudinal data documentation states that estimtates from 2002-2004 (predates the earliest County Health Rankings release) were created using the Current Population Survey while data from 2005 and on were created using the American Community Survey. As such, this constitutes a break in the trend. However, there is no flag in the data to indicate such a break should occur.</t>
+  </si>
+  <si>
     <t>income_inequality</t>
   </si>
   <si>
@@ -823,6 +895,9 @@
   </si>
   <si>
     <t xml:space="preserve">This variable is only available in 2010.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is only one data point available for this variable, and it was last updated in 2010.</t>
   </si>
   <si>
     <t xml:space="preserve">children_in_single-parent_households </t>
@@ -889,6 +964,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">No discernible disjunctures between 2015 and 2016. Very large, uniform, relative decrease in values from 2020 to 2021.</t>
+  </si>
+  <si>
     <t>single-parent_households</t>
   </si>
   <si>
@@ -925,6 +1003,9 @@
     <t xml:space="preserve">The membership organizations (NAICS code) in this measure include civic organizations (813410), bowling centers (713950), golf clubs (713910), fitness centers (713940), sports organizations (711211), religious organizations (813110), political organizations (813940), labor organizations (813930), business organizations (813910), and professional organizations (813920).</t>
   </si>
   <si>
+    <t xml:space="preserve">Unrelated to the data provider recommended break points, there was a large, (relatively) uniform, relative decline in values from 2019 to 2020.</t>
+  </si>
+  <si>
     <t>injury_deaths</t>
   </si>
   <si>
@@ -964,12 +1045,18 @@
     <t xml:space="preserve">Despite changes in the source of the data, the data provider says this measure can be compared across all years.</t>
   </si>
   <si>
+    <t xml:space="preserve">This variable has a lot of disjunctures so it is hard to say how comparable estimates across time really are.</t>
+  </si>
+  <si>
     <t>air_pollution-particulate_matter_days</t>
   </si>
   <si>
     <t xml:space="preserve">Annual number of days that the air quality was unhealthy due to fine particulate matter.</t>
   </si>
   <si>
+    <t xml:space="preserve">This variable only has three data points, and it has not been updated since 2012.</t>
+  </si>
+  <si>
     <t>air_pollution-ozone_days</t>
   </si>
   <si>
@@ -997,6 +1084,9 @@
     <t xml:space="preserve">The denominator is the total number of people with access to public water.</t>
   </si>
   <si>
+    <t xml:space="preserve">This variable only has three data points, and it has not been updated since 2015.</t>
+  </si>
+  <si>
     <t>drinking_water_violations_bin</t>
   </si>
   <si>
@@ -1021,6 +1111,9 @@
     <t xml:space="preserve">Overall, the data provider does not recommend using this measure to track progress in counties over time. If one does, they recommend the following time comparisons: 2016-2017; 2018-2023.</t>
   </si>
   <si>
+    <t xml:space="preserve">Because this variable is a binary variable, it is a bit harder to track progress over time.</t>
+  </si>
+  <si>
     <t>severe_housing_problems</t>
   </si>
   <si>
@@ -1057,7 +1150,7 @@
     <t xml:space="preserve">Severe cost burden is defined as monthly housing costs (including utilities) that exceed 50% of monthly income.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data provider notes that this variable is different from percentage_of_households_with_high_housing_costs although they do not go into detail about how they are different.</t>
+    <t xml:space="preserve">Data provider notes that this variable is different from severe_housing_cost_burden although they do not go into detail about how they are different.</t>
   </si>
   <si>
     <t>percentage_of_households_with_overcrowding</t>
@@ -1135,6 +1228,9 @@
     <t xml:space="preserve">A missing value is reported for counties with fewer than 20 premature deaths in the time frame.</t>
   </si>
   <si>
+    <t xml:space="preserve">Unrelated to the data provider recommended break points, there was a large, uniform, relative increase from 2021 to 2022.</t>
+  </si>
+  <si>
     <t>child_mortality</t>
   </si>
   <si>
@@ -1165,6 +1261,9 @@
     <t xml:space="preserve">A missing value is reported for counties with fewer than 20 infant deaths in the time frame.</t>
   </si>
   <si>
+    <t xml:space="preserve">This variable does not appear to vary greatly over time (most data points have the same value).</t>
+  </si>
+  <si>
     <t>frequent_physical_distress</t>
   </si>
   <si>
@@ -1177,6 +1276,9 @@
     <t xml:space="preserve">Data provider recommends the following time comparisons: 2016-2020; 2021-2023.</t>
   </si>
   <si>
+    <t xml:space="preserve">Large, uniform, relative increase from 2020 to 2021. Unrelated to the data provider recommended break points, there was a very large, uniform, relative decrease from 2022 to 2023.</t>
+  </si>
+  <si>
     <t>frequent_mental_distress</t>
   </si>
   <si>
@@ -1184,6 +1286,9 @@
   </si>
   <si>
     <t xml:space="preserve">The numerator is the number of adults who reported 14 or more days in response to the question, “Now, thinking about your mental health, which includes stress, depression, and problems with emotions, for how many days during the past 30 days was your mental health not good?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate, uniform, increase in values from 2020 to 2021.</t>
   </si>
   <si>
     <t>diabetes_prevalence</t>
@@ -1228,6 +1333,9 @@
     <t xml:space="preserve">Since this is not a ranked measure, the data provider has not provided explicit instructions on which years can be compared. Based on the documentation and looking at the data, I think the following comparisons can be made: 2011-2021; 2022-2023. This is based on the assumption that estimates from the BRFSS can be compared to the estimates from the CDC Diabetes Interactive Atlas and the US Diabetes Surveillance System.</t>
   </si>
   <si>
+    <t xml:space="preserve">Large, uniform, relative decrease in values from 2021 to 2022.</t>
+  </si>
+  <si>
     <t>hiv_prevalence</t>
   </si>
   <si>
@@ -1249,7 +1357,10 @@
     <t xml:space="preserve">HIV is a reportable disease meaning that when a provider treats a patient for HIV they are required to report that case to their health department. This measure of HIV Prevalence includes all county residents including those living in group quarters such as prisons or on military bases. Some states, when releasing prevalence measures, exclude these populations. Prior to 2020, the variable was defined as the number of positively screened individuals for HIV per 100,000 people.</t>
   </si>
   <si>
-    <t xml:space="preserve">Since this is not a ranked measure, the data provider has not provided explicit instructions on which years can be compared. Based on the documentation and looking at the data, I am not sure which years can actually be compared. Descriptively, there is positive, linear growth in this variable at the national level (with a moderate amount of heterogeneoty among states). The only disjuncture comes in 2020 when values spike, but they quickly decline back to normal levels in subsequent years.</t>
+    <t xml:space="preserve">Since this is not a ranked measure, the data provider has not provided explicit instructions on which years can be compared. Based on the documentation and looking at the data, I am not sure which years can actually be compared.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is positive, linear growth in this variable at the national level (with a moderate amount of heterogeneity among states). Over time, though, the values are very stable. The only disjuncture comes in 2020 when values spike, but that was only for one state.</t>
   </si>
   <si>
     <t>food_insecurity</t>
@@ -1274,6 +1385,9 @@
   </si>
   <si>
     <t xml:space="preserve">Since this is not a ranked measure, the data provider has not provided explicit instructions on which years can be compared. Based on the documentation, I believe the following comparisons could be made: 2014-2020; 2021-2023. Estimates from 2021 and on account for disability status and have a different definition of poverty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is not much change in this variable when looking at national averages from 2020 to 2021. At the state level during this time period, there is a fair amount of heterogeneity.</t>
   </si>
   <si>
     <t>limited_access_to_healthy_foods</t>
@@ -1365,6 +1479,9 @@
     <t xml:space="preserve">Living close to a grocery store is defined differently in rural and nonrural areas; in rural areas, it means living less than 10 miles from a grocery store; in nonrural areas, less than one mile. Low income is defined as having an annual family income of less than or equal to 200 percent of the federal poverty threshold for the family size.</t>
   </si>
   <si>
+    <t xml:space="preserve">Unrelated to the data provider recommended break points, there is a very large, (relatively) uniform, decline in values from 2011 to 2012. Moderate, heterogeneous, increases in values from 2017 to 2018.</t>
+  </si>
+  <si>
     <t>drug_overdose_deaths</t>
   </si>
   <si>
@@ -1395,6 +1512,9 @@
     <t xml:space="preserve">At the county level, values correspond to numeric codes which reflect modeled interval rates of drug overdose deaths per 100,000 people. The numeric codes for 2016 are as follows:1 (0 - 2); 2 (2.1 - 4); 3 (4.1 - 6); 4 (6.1 - 8); 5 (8.1 - 10); 6 (10.1 - 12); 7 (12.1 - 14); 8 (14.1 - 16); 9 (16.1 - 18); 10 (18.1 - 20); 11 (&gt; 20). The numeric codes for 2018 are as follows: 1 (0 - 1.99), 2 (2 - 3.9), 3 (4 - 5.9), 4 (6 - 7.9), 5 (8 - 11.9), 6 (12 - 13.9), 7 (14 - 15.9), 8 (16 - 17.9), 9 (18 - 19.9), 10 (20 - 21.9), 11 (22, 23.9), 12 (24 - 25.9), 13 (26 - 27.9), 14 (28 - 29.9) 15 (&gt; 30).</t>
   </si>
   <si>
+    <t xml:space="preserve">There are only two data points available for this variable.</t>
+  </si>
+  <si>
     <t>drug_poisoning_deaths</t>
   </si>
   <si>
@@ -2181,7 +2301,16 @@
     <t xml:space="preserve">Total population.</t>
   </si>
   <si>
+    <t xml:space="preserve">Violent crimes are defined as offenses that involve face-to-face confrontation between the victim and the perpetrator including homicide, forcible rape, robbery, and aggravated assault.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discontinuous; continuous</t>
+  </si>
+  <si>
     <t xml:space="preserve">The variable is no longer used in the rankings so documentation is more sparse. The data provider recommends the following time comparisons: 2010-2011; 2012-2022. They do not offer reasons as to why.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The longitudinal data documentation does not indicate that there should be any breaks in the time trend. This may be because they do not use state sources earlier in the measurement of this variable, but rather they continously use the FBI's Uniform Crime Reports.</t>
   </si>
   <si>
     <t>access_to_healthy_foods</t>
@@ -3032,14 +3161,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A54" zoomScale="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="71.140625"/>
+    <col customWidth="1" min="1" max="1" style="2" width="29.140625"/>
     <col customWidth="1" min="2" max="2" style="1" width="77.7109375"/>
     <col customWidth="1" min="3" max="3" style="1" width="25.421875"/>
     <col customWidth="1" min="4" max="4" style="1" width="36.140625"/>
@@ -3052,8 +3181,10 @@
     <col customWidth="1" min="13" max="13" style="1" width="70.00390625"/>
     <col customWidth="1" min="14" max="14" style="1" width="86.421875"/>
     <col customWidth="1" min="15" max="15" style="1" width="26.7109375"/>
-    <col customWidth="1" min="16" max="16" style="1" width="60.8515625"/>
-    <col min="17" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="16" max="16" style="1" width="63.140625"/>
+    <col customWidth="1" min="17" max="17" style="1" width="61.8515625"/>
+    <col customWidth="1" min="18" max="18" style="1" width="58.57421875"/>
+    <col min="19" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="14.25">
@@ -3105,6199 +3236,6328 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="114">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" ht="299.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="5" t="s">
-        <v>35</v>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="R3" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" ht="299.25">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="5" t="s">
-        <v>35</v>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="299.25">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="5" t="s">
-        <v>35</v>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" ht="114">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P6" s="1"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" ht="299.25">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="299.25">
       <c r="A8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>64</v>
+      <c r="O8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="299.25">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="299.25">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>79</v>
+      <c r="O10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="171">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="299.25">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="5" t="s">
-        <v>91</v>
+      <c r="G12" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" ht="299.25">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="5" t="s">
-        <v>96</v>
+      <c r="G13" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" ht="114">
       <c r="A14" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" ht="71.25">
       <c r="A15" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" ht="114">
       <c r="A16" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" ht="28.5">
+    <row r="17" ht="42.75">
       <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="18" ht="213.75">
       <c r="A18" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R18" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="19" ht="128.25">
       <c r="A19" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" ht="171">
       <c r="A20" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" ht="242.25">
+    <row r="21" ht="228">
       <c r="A21" s="2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" ht="114">
+        <v>182</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" ht="156.75">
       <c r="A22" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q22" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="23" ht="71.25">
       <c r="A23" s="2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="24" ht="71.25">
       <c r="A24" s="2" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" ht="57">
       <c r="A25" s="2" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P25" s="1"/>
     </row>
     <row r="26" ht="42.75">
       <c r="A26" s="2" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P26" s="1"/>
     </row>
     <row r="27" ht="42.75">
       <c r="A27" s="2" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P27" s="1"/>
     </row>
     <row r="28" ht="199.5">
       <c r="A28" s="2" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" ht="71.25">
+        <v>233</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" ht="85.5">
       <c r="A29" s="2" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="30" ht="142.5">
       <c r="A30" s="2" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" ht="57">
       <c r="A31" s="2" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>232</v>
+        <v>256</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="32" ht="185.25">
       <c r="A32" s="2" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>238</v>
+        <v>263</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="33" ht="57">
       <c r="A33" s="2" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>243</v>
+        <v>269</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="34" ht="57">
       <c r="A34" s="2" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="35" ht="114">
       <c r="A35" s="2" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" ht="213.75">
       <c r="A36" s="2" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>263</v>
+        <v>290</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="37" ht="28.5">
       <c r="A37" s="2" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="38" ht="28.5">
       <c r="A38" s="2" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="39" ht="57">
       <c r="A39" s="2" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="40" ht="57">
       <c r="A40" s="2" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>282</v>
+        <v>312</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="41" ht="71.25">
       <c r="A41" s="2" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" ht="42.75">
       <c r="A42" s="2" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>295</v>
+        <v>58</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="43" ht="28.5">
       <c r="A43" s="2" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" ht="42.75">
       <c r="A44" s="2" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" ht="28.5">
       <c r="A45" s="2" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" ht="42.75">
       <c r="A46" s="2" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" ht="114">
       <c r="A47" s="2" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" ht="114">
       <c r="A48" s="2" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="49" ht="114">
       <c r="A49" s="2" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" ht="114">
       <c r="A50" s="2" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="51" ht="299.25">
       <c r="A51" s="2" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>334</v>
+        <v>367</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="52" ht="299.25">
       <c r="A52" s="2" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>334</v>
+        <v>367</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="53" ht="299.25">
       <c r="A53" s="2" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="54" ht="114">
+        <v>37</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" ht="99.75">
       <c r="A54" s="2" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>350</v>
+        <v>109</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="55" ht="142.5">
       <c r="A55" s="2" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>358</v>
+        <v>395</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="56" ht="213.75">
       <c r="A56" s="2" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="57" ht="142.5">
       <c r="A57" s="2" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="R57" s="1"/>
     </row>
     <row r="58" ht="85.5">
       <c r="A58" s="2" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="59" ht="28.5">
       <c r="A59" s="2" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" ht="28.5">
       <c r="A60" s="2" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" ht="28.5">
       <c r="A61" s="2" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" ht="128.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" ht="114">
       <c r="A62" s="2" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="Q62" s="1"/>
     </row>
     <row r="63" ht="213.75">
       <c r="A63" s="2" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" ht="42.75">
       <c r="A64" s="2" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="G65" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H65" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="G66" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H66" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="2" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L68" s="1"/>
       <c r="O68" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" s="2" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="I79" s="1">
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="L80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>507</v>
+        <v>547</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>517</v>
+        <v>557</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>523</v>
+        <v>563</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>524</v>
+        <v>564</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>525</v>
+        <v>565</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>526</v>
+        <v>566</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>523</v>
+        <v>563</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89" s="2" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="I89" s="1">
         <v>0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="1" t="s">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I92" s="1">
         <v>0</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="1" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I93" s="1">
         <v>0</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="1" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I94" s="1">
         <v>0</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="1" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="1" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I96" s="1">
         <v>0</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="1" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" ht="14.25">
       <c r="A98" s="1" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I98" s="1">
         <v>0</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="1" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="1" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I100" s="1">
         <v>0</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" ht="14.25">
       <c r="A101" s="1" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M101" s="1"/>
       <c r="O101" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P101" s="1"/>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="1" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="1" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="I105" s="1">
         <v>0</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="106" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>609</v>
+        <v>649</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E109" s="1"/>
       <c r="G109" s="1" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E110" s="1"/>
       <c r="G110" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P110" s="1"/>
     </row>
     <row r="111" ht="14.25">
       <c r="A111" s="2" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P111" s="1"/>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I112" s="1">
         <v>0</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="I113" s="1">
         <v>0</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1" t="s">
-        <v>36</v>
+      <c r="N113" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="O113" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>639</v>
+        <v>681</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="114" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>641</v>
+        <v>684</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>643</v>
+        <v>686</v>
       </c>
       <c r="E114" s="1"/>
       <c r="G114" s="1" t="s">
-        <v>644</v>
+        <v>687</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>646</v>
+        <v>689</v>
       </c>
       <c r="L114" s="1"/>
       <c r="N114" s="1" t="s">
-        <v>647</v>
+        <v>690</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>648</v>
+        <v>691</v>
       </c>
     </row>
     <row r="115" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>650</v>
+        <v>693</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="E115" s="1"/>
       <c r="G115" s="1" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P115" s="1"/>
     </row>
     <row r="116" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>653</v>
+        <v>696</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>654</v>
+        <v>697</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="E116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>656</v>
+        <v>699</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P116" s="1"/>
     </row>
     <row r="117" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P117" s="1"/>
     </row>
     <row r="118" ht="14.25">
       <c r="A118" s="2" t="s">
-        <v>660</v>
+        <v>703</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>663</v>
+        <v>706</v>
       </c>
       <c r="I118" s="1">
         <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>664</v>
+        <v>707</v>
       </c>
     </row>
     <row r="119" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>666</v>
+        <v>709</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="D120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="123" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>672</v>
+        <v>715</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>673</v>
+        <v>716</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>676</v>
+        <v>719</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>677</v>
+        <v>720</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>680</v>
+        <v>723</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>681</v>
+        <v>724</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>682</v>
+        <v>725</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>684</v>
+        <v>727</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>685</v>
+        <v>728</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>687</v>
+        <v>730</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>689</v>
+        <v>732</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>690</v>
+        <v>733</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>691</v>
+        <v>734</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="K140" s="1"/>
       <c r="N140" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="141" ht="14.25">
       <c r="A141" s="2" t="s">
-        <v>692</v>
+        <v>735</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>694</v>
+        <v>737</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>695</v>
+        <v>738</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="145" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>697</v>
+        <v>740</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>698</v>
+        <v>741</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>699</v>
+        <v>742</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="148" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>700</v>
+        <v>743</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>701</v>
+        <v>744</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>703</v>
+        <v>746</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="152" ht="14.25">
       <c r="A152" s="2" t="s">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="153" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>705</v>
+        <v>748</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>706</v>
+        <v>749</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>708</v>
+        <v>751</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="157" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="158" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" ht="14.25">
       <c r="A159" s="2" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="163" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>715</v>
+        <v>758</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="164" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>716</v>
+        <v>759</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="165" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>717</v>
+        <v>760</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="166" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>718</v>
+        <v>761</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>719</v>
+        <v>762</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="168" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>720</v>
+        <v>763</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="169" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="170" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="171" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="172" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="173" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="174" ht="14.25">
       <c r="A174" s="2" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="175" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>727</v>
+        <v>770</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="176" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="177" ht="14.25">
       <c r="A177" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N177" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="O177" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="179" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>731</v>
+        <v>774</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/clean_chrr-wphi/output/my_dictionary_v2.xlsx
+++ b/clean_chrr-wphi/output/my_dictionary_v2.xlsx
@@ -1512,7 +1512,7 @@
     <t xml:space="preserve">At the county level, values correspond to numeric codes which reflect modeled interval rates of drug overdose deaths per 100,000 people. The numeric codes for 2016 are as follows:1 (0 - 2); 2 (2.1 - 4); 3 (4.1 - 6); 4 (6.1 - 8); 5 (8.1 - 10); 6 (10.1 - 12); 7 (12.1 - 14); 8 (14.1 - 16); 9 (16.1 - 18); 10 (18.1 - 20); 11 (&gt; 20). The numeric codes for 2018 are as follows: 1 (0 - 1.99), 2 (2 - 3.9), 3 (4 - 5.9), 4 (6 - 7.9), 5 (8 - 11.9), 6 (12 - 13.9), 7 (14 - 15.9), 8 (16 - 17.9), 9 (18 - 19.9), 10 (20 - 21.9), 11 (22, 23.9), 12 (24 - 25.9), 13 (26 - 27.9), 14 (28 - 29.9) 15 (&gt; 30).</t>
   </si>
   <si>
-    <t xml:space="preserve">There are only two data points available for this variable.</t>
+    <t xml:space="preserve">There are only two data points available for this variable, and it was last updated in 2018.</t>
   </si>
   <si>
     <t>drug_poisoning_deaths</t>
@@ -3161,7 +3161,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>

--- a/clean_chrr-wphi/output/my_dictionary_v2.xlsx
+++ b/clean_chrr-wphi/output/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="809">
   <si>
     <t>variable</t>
   </si>
@@ -66,7 +66,7 @@
     <t>longitudinal_data_notes</t>
   </si>
   <si>
-    <t>time_trend_visual_inspection</t>
+    <t>time_trend_decision</t>
   </si>
   <si>
     <t>premature_death</t>
@@ -681,7 +681,7 @@
     <t>preventable_hospital_stays</t>
   </si>
   <si>
-    <t xml:space="preserve">Rate of hospital stays for ambulatory-care sensitive conditions per 1,000 Medicare enrollees.</t>
+    <t xml:space="preserve">Rate of hospital stays for ambulatory-care sensitive conditions per 100,000 Medicare enrollees.</t>
   </si>
   <si>
     <t>mmdt</t>
@@ -699,7 +699,7 @@
     <t xml:space="preserve">The denominator is the number of Medicare beneficiaries ages 18 years or older continuously enrolled in Medicare fee-for-service Part A.</t>
   </si>
   <si>
-    <t xml:space="preserve">From 2019-2023, I change the estimate back to per 1,000 to make results comparable.</t>
+    <t xml:space="preserve">From 2019-2023, I change the estimates to per 1,000 to make results more comparable to earlier releases.</t>
   </si>
   <si>
     <t xml:space="preserve">Individuals must have been hospitalized with one of the following conditions: diabetes with short or long-term complications, uncontrolled diabetes without complications, diabetes with lower-extremity amputation, chronic obstructive pulmonary disease, asthma, hypertension, heart failure, dehydration, bacterial pneumonia, or urinary tract infection. Individuals enrolled in Medicare Advantage at any point during the year are excluded. In addition, beneficiaries who died during the year, but otherwise were continuously enrolled up until the date of death, as well as beneficiaries who became eligible for enrollment following the first of the year, but were continuously enrolled from that date to the end of the year, are included in the analysis population.</t>
@@ -1566,6 +1566,9 @@
     <t xml:space="preserve">Data provider does not recommend using this data to track progress due to concerns that many providers are no longer practicing but are not delisted from the directory. Additionally, the data provider discovered an error in their estimates from 2014-2016 where organizations were being counted alongside individual providers. The corrected estimates were provided in 2015 and 2016 but not 2014. Thus, there are no estimates available for 2014. If one truly wishes to make cross-time comparisons, it appears as if one should use 2015-2023.</t>
   </si>
   <si>
+    <t xml:space="preserve">There are no major discernible disjunctures in the data.</t>
+  </si>
+  <si>
     <t>high_school_graduation</t>
   </si>
   <si>
@@ -1596,6 +1599,9 @@
     <t xml:space="preserve">Data provider does not recommend using this data to track progress. Constant changes in the data source combined with different definitions of the variable across states (even for schools within the same state) make comparisons hard. If one wishes to compare across time, the data provider recommends the following time comparisons: 2010; 2011; 2012-2013; 2014-2018; 2019; 2020; 2021-2023. In particular, the data provider notes that in 2019 the priority was to use state-specific sources for states that had a large number of missing counties in the national-level data. Moving forward, the data provider tried to rely less upon state-level sources and only use the national-level data. When making cross-time comparisons, one should strive to ensure the data sources are the same for all observations.</t>
   </si>
   <si>
+    <t xml:space="preserve">There are no major discernible disjunctures in the data. One state had a huge spike from 2011 to 2012 and achieved a 100% high school graduation rate fro 2012 to 2013 which is most likely a data error.</t>
+  </si>
+  <si>
     <t>disconnected_youth</t>
   </si>
   <si>
@@ -1614,6 +1620,9 @@
     <t xml:space="preserve">Data provider recommends the following time comparisons: 2017-2018; 2019-2023.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is a very large, uniform, relative decline from 2018 to 2019.</t>
+  </si>
+  <si>
     <t>reading_scores</t>
   </si>
   <si>
@@ -1632,6 +1641,9 @@
     <t xml:space="preserve">Reading Scores is the average grade level performance in the county for 3rd graders on English Language Arts standardized tests. For example, a score of 3.5 indicates that the 3rd graders are performing half a grade level better than expected for 3rd graders. </t>
   </si>
   <si>
+    <t xml:space="preserve">There are only 4 data points available for this variable and three out of the four data points exhibit no variation (they are the same value).</t>
+  </si>
+  <si>
     <t>math_scores</t>
   </si>
   <si>
@@ -1659,6 +1671,9 @@
     <t xml:space="preserve">School segregation is measured using Thell's index which ranges from 0 to 1 with lower values representing a school composition that approximates race and ethnicity distributions in the student populations within the county and higher values representing more segregation. Data is not collected on private schools.</t>
   </si>
   <si>
+    <t xml:space="preserve">There are only 2 data points available for this variable.</t>
+  </si>
+  <si>
     <t>school_funding_adequacy</t>
   </si>
   <si>
@@ -1719,6 +1734,9 @@
     <t xml:space="preserve">Childcare cost data are based on market-rate surveys reported separately by state, published in different years. Some states only report state or region-level estimates, and thus require county-level imputation. Due to this, states may differ in the extent to which estimates are modeled vs. observed. I think, primarily for this reason, the data provider suggests caution when comparing this data across time as well across states.</t>
   </si>
   <si>
+    <t xml:space="preserve">In what is likely an error on the data provider's part, all values for this variable are missing.</t>
+  </si>
+  <si>
     <t>children_eligible_for_free_lunch</t>
   </si>
   <si>
@@ -1740,6 +1758,9 @@
     <t xml:space="preserve">There is some discrepancy in the documentation concerning the source of the data. This makes it hard to say which years can be compared with which other years.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is a large, uniform, relative increase from 2012 to 2013. From 2014 to 2015 and then 2015 to 2016, several states exhibit large variation (values which jump around quite a bit).</t>
+  </si>
+  <si>
     <t>children_eligible_for_free_or_reduced_price_lunch</t>
   </si>
   <si>
@@ -1755,6 +1776,9 @@
     <t xml:space="preserve">Children eligible for free lunch live in a family with income less than 130% of the federal poverty level, while children eligible for reduced price lunch live in a family with income less than 185% of the federal poverty level.</t>
   </si>
   <si>
+    <t xml:space="preserve">There are a few states which exhibit a large amount of variation otherwise there are no obvious disjunctures.</t>
+  </si>
+  <si>
     <t>residential_segregation_-_black/white</t>
   </si>
   <si>
@@ -1767,13 +1791,19 @@
     <t xml:space="preserve">The degree to which two or more groups live separately from one another in a geographic area. The index of dissimiliarity is a measure of evenness with which two groups are distributed across component geographic areas (census tracts in this case) that make up a larger areas (counties in this case).</t>
   </si>
   <si>
+    <t xml:space="preserve">There is a moderate, uniform, relative increase in values from 2021 to 2022.</t>
+  </si>
+  <si>
     <t>residential_segregation_-_non-white/white</t>
   </si>
   <si>
     <t xml:space="preserve">Index of dissimilarity where higher values indicate greater residential segregation between non-White and White county residents.</t>
   </si>
   <si>
-    <t>childcare_cost_burden</t>
+    <t xml:space="preserve">There is a moderate, heterogeneous, relative increase in values from 2021 to 2022.</t>
+  </si>
+  <si>
+    <t>child_care_cost_burden</t>
   </si>
   <si>
     <t xml:space="preserve">Childcare costs for a household with two children as a percent of median household income.</t>
@@ -1791,13 +1821,19 @@
     <t xml:space="preserve">Median household income data calculated from the Small Area Income and Poverty Estimates.</t>
   </si>
   <si>
+    <t xml:space="preserve">I change this variable from childcare_cost_burden to child_care_cost_burden in 2022 to match later releases of the data.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Living Wage Calculator established child care costs for each county based on market rate surveys published by each state, databases of local providers, and by contacting providers in a state directly.</t>
   </si>
   <si>
     <t xml:space="preserve">Childcare cost data are based on market-rate surveys reported separately by state, published in different years. Some states only report state or region-level estimates, and thus require county-level imputation. Due to this, states may differ in the extent to which estimates are modeled vs. observed. Additionally, the estimate of child care costs have been adjusted to reflect inflation. For both of these reasons, the data provider does not recommend comparing these estimates across year (and also warn of the difficulties of making cross-state comparisons as well).</t>
   </si>
   <si>
-    <t>childcare_centers</t>
+    <t xml:space="preserve">There are only 2 data points available for this variable, and there are no obvious, discernible disjunctures.</t>
+  </si>
+  <si>
+    <t>child_care_centers</t>
   </si>
   <si>
     <t xml:space="preserve">Number of childcare centers per 1,000 population under 5 years old. </t>
@@ -1815,12 +1851,18 @@
     <t xml:space="preserve">The denominator is the total resident population under 5 years old in a county.</t>
   </si>
   <si>
+    <t xml:space="preserve">I change this variable from childcare_centers to child_care_centers in 2022 to match later releases of the data.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The dataset only includes center based child day care locations (including those located at schools and religious institutes) and does not include group, home, and family based child day cares. All the data was acquired from respective states departments or their open source websites and only contains data provided by these sources. Child care centers are regulated by state licensing. Definitions of childcare facilities vary by state making comparisons across states difficult. Data were acquired from respective state's departments and therefore may be subject to reporting differences.</t>
   </si>
   <si>
     <t xml:space="preserve">The data provider does not give any warnings when comparing across time, but they do give a strong warning when comparing across states. See the note in variable_definitions.</t>
   </si>
   <si>
+    <t xml:space="preserve">There are only 2 data points available for this variable. A few states exhibit a relatively large amount of variation, but most states exhibit stable trends. </t>
+  </si>
+  <si>
     <t>homicides</t>
   </si>
   <si>
@@ -1839,6 +1881,9 @@
     <t xml:space="preserve">It is important to note that deaths are counted in the county of residence of the deceased. So, even if a homicide occurred across the state, the death is counted in the home county of the individual who died. Homicides are defined by ICD-10 codes X85-Y09 (assault).</t>
   </si>
   <si>
+    <t xml:space="preserve">Several states exhibit a large amount of variation otherwise there are no obvious disjunctures.</t>
+  </si>
+  <si>
     <t>suicides</t>
   </si>
   <si>
@@ -1863,6 +1908,9 @@
     <t xml:space="preserve">From 2020-2023, I set the stem for this variable to be raw_value.</t>
   </si>
   <si>
+    <t xml:space="preserve">There are no obvious, discernible disjunctures.</t>
+  </si>
+  <si>
     <t>firearm_fatalities</t>
   </si>
   <si>
@@ -1905,6 +1953,9 @@
     <t xml:space="preserve">The data provider does not give any specific instructions probably because this variable is not used in the rankings. However, I would recommend the following year comparisons: 2010-2012; 2013-2023.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is a moderate, (relatively) uniform, relative decline in values from 2012 to 2013.</t>
+  </si>
+  <si>
     <t>juvenile_arrests</t>
   </si>
   <si>
@@ -1989,6 +2040,9 @@
     <t xml:space="preserve">Data provider does not recommend comparing across states due to differences in state collection and reporting of traffic. Data provider does not recommend comparing across time to measure progress.</t>
   </si>
   <si>
+    <t xml:space="preserve">Several states exhibit a great deal of variation for this variable. Otherwise, there are no discernible, obvious disjunctures.</t>
+  </si>
+  <si>
     <t>homeownership</t>
   </si>
   <si>
@@ -2043,6 +2097,9 @@
     <t xml:space="preserve">Presumably, the number of citizens 18 and older, bu there is no concreate documentation.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is only 1 data point available for this variable.</t>
+  </si>
+  <si>
     <t>census_participation</t>
   </si>
   <si>
@@ -2166,6 +2223,9 @@
     <t xml:space="preserve">Number of individuals not proficient in English.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is a large, uniform, relative decline in values from 2012 to 2013.</t>
+  </si>
+  <si>
     <t>%_female</t>
   </si>
   <si>
@@ -2178,6 +2238,9 @@
     <t xml:space="preserve">From 2011 to 2021, I rename the variable from %_females to %_female for consistency purposes with newer releases of the data.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is a moderate, (relatively) uniform, relative decline in values from 2012 to 2013. There is a large, uniform, relative decline in values from 2022 to 2023.</t>
+  </si>
+  <si>
     <t>%_rural</t>
   </si>
   <si>
@@ -2187,12 +2250,18 @@
     <t xml:space="preserve">Number of individuals living in rural areas.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is a large, (relatively) uniform, relative decline in values from 2012 to 2013. Additionally, there is a not a lot of variation in this variable.</t>
+  </si>
+  <si>
     <t>could_not_see_doctor_due_to_cost</t>
   </si>
   <si>
     <t xml:space="preserve">This variable is not used in the rankings so documentation is more sparse. Based on how previous variables from this data source were constructed, it would seem as if all years of availability for this variable could be compared, but this is an informed guess.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is a large, (relatively) uniform, relative increase in values from 2013 to 2014.</t>
+  </si>
+  <si>
     <t>high_housing_costs</t>
   </si>
   <si>
@@ -2211,6 +2280,9 @@
     <t>access_to_parks</t>
   </si>
   <si>
+    <t xml:space="preserve">There is only 1 data point available for this variable, and it stopped being updated in 2013.</t>
+  </si>
+  <si>
     <t>illiteracy</t>
   </si>
   <si>
@@ -2220,6 +2292,9 @@
     <t xml:space="preserve">National Center for Education Statistics's National Assessment of Adult Literacy</t>
   </si>
   <si>
+    <t xml:space="preserve">There are only 2 data points available for this variable which exibhit no variation, and it stopped being updated in 2012.</t>
+  </si>
+  <si>
     <t>liquor_store_density</t>
   </si>
   <si>
@@ -2241,6 +2316,9 @@
     <t xml:space="preserve">Liquor stores are defined using NAICS code 445310.</t>
   </si>
   <si>
+    <t xml:space="preserve">There are only 2 data points available for this variable. A few states exhibit a great deal of variation while most states exhibit very little variation. It stopped being updated in 2011.</t>
+  </si>
+  <si>
     <t>diabetes_monitoring</t>
   </si>
   <si>
@@ -2253,12 +2331,18 @@
     <t xml:space="preserve">The number of diabetic Medicare enrolless ages 65-75.</t>
   </si>
   <si>
+    <t xml:space="preserve">A few states exhibit a great deal of variation while most states exhibit very little variation.</t>
+  </si>
+  <si>
     <t>hospice_use</t>
   </si>
   <si>
     <t xml:space="preserve">Percent of chronically ill Medicare enrollees admitted to hospice in last 6 months of life.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is only 1 data point available for this variable, and it stopped being updated in 2010.</t>
+  </si>
+  <si>
     <t>college_degrees</t>
   </si>
   <si>
@@ -2280,6 +2364,9 @@
     <t xml:space="preserve">The number of adults reporting they do not get social/emotional support.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is very little variation in this variable across time.</t>
+  </si>
+  <si>
     <t>violent_crime</t>
   </si>
   <si>
@@ -2313,6 +2400,9 @@
     <t xml:space="preserve">The longitudinal data documentation does not indicate that there should be any breaks in the time trend. This may be because they do not use state sources earlier in the measurement of this variable, but rather they continously use the FBI's Uniform Crime Reports.</t>
   </si>
   <si>
+    <t xml:space="preserve">There are no obvious, discernible disjunctures in the data. Many more states have data available starting in 2012. From 2019 to 2022, there is no variation in the value of this variable.</t>
+  </si>
+  <si>
     <t>access_to_healthy_foods</t>
   </si>
   <si>
@@ -2340,6 +2430,9 @@
     <t xml:space="preserve">The variable is no longer used in the rankings so documentation is more sparse. The data provider recommends the following time comparisons: 2010, 2011-2012. They do not offer reasons as to why.</t>
   </si>
   <si>
+    <t xml:space="preserve">There is a very large, uniform, relative increase in values from 2010 to 2011. Values remain relatively static from 2011 to 2012.</t>
+  </si>
+  <si>
     <t>access_to_recreational_facilities</t>
   </si>
   <si>
@@ -2352,6 +2445,9 @@
     <t xml:space="preserve">The total number of people in a county.</t>
   </si>
   <si>
+    <t xml:space="preserve">There are only 3 data points available for this variable, and it stopped being updated in 2013.</t>
+  </si>
+  <si>
     <t>fast_food_restaurants</t>
   </si>
   <si>
@@ -2364,6 +2460,9 @@
     <t xml:space="preserve">Total number of restaurants in a county.</t>
   </si>
   <si>
+    <t xml:space="preserve">There are only 2 data points available for this variable, and it stopped being updated in 2013.</t>
+  </si>
+  <si>
     <t>covid-19_age-adjusted_mortality</t>
   </si>
   <si>
@@ -2386,6 +2485,9 @@
   </si>
   <si>
     <t xml:space="preserve">This variable is not used in the rankings so documentation is more sparse. Based on how previous variables from this data source were constructed, it would seem as if the following comparisons should be ok: 2016-2020; 2021-2022, but this is an informed guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a very large, uniform, relative increase in values from 2020 to 2021. Unrelated to the data provider recommended break points, there is a large, uniform, relative decline in values from 2022 to 2023.</t>
   </si>
   <si>
     <t>health_care_costs</t>
@@ -3161,8 +3263,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="O1" zoomScale="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3183,7 +3285,7 @@
     <col customWidth="1" min="15" max="15" style="1" width="26.7109375"/>
     <col customWidth="1" min="16" max="16" style="1" width="63.140625"/>
     <col customWidth="1" min="17" max="17" style="1" width="61.8515625"/>
-    <col customWidth="1" min="18" max="18" style="1" width="58.57421875"/>
+    <col customWidth="1" min="18" max="18" style="1" width="60.421875"/>
     <col min="19" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
@@ -3285,7 +3387,7 @@
       <c r="Q2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="5"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" ht="299.25">
       <c r="A3" s="2" t="s">
@@ -3329,7 +3431,7 @@
         <v>39</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3374,7 +3476,7 @@
       <c r="P4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3420,7 +3522,7 @@
         <v>39</v>
       </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3512,7 +3614,7 @@
       <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3560,7 +3662,7 @@
       <c r="Q8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3604,7 +3706,7 @@
         <v>81</v>
       </c>
       <c r="Q9" s="1"/>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3652,7 +3754,7 @@
       <c r="Q10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3696,7 +3798,7 @@
       <c r="P11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3741,7 +3843,7 @@
       <c r="P12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3785,7 +3887,7 @@
         <v>110</v>
       </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3993,7 +4095,7 @@
       <c r="P18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4042,7 +4144,7 @@
       <c r="P19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4136,7 +4238,7 @@
       <c r="P21" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4144,7 +4246,7 @@
       <c r="A22" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4168,7 +4270,7 @@
       <c r="J22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="5" t="s">
         <v>191</v>
       </c>
       <c r="L22" s="1"/>
@@ -4184,7 +4286,7 @@
       <c r="Q22" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4230,7 +4332,7 @@
       <c r="Q23" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4396,13 +4498,13 @@
       <c r="N28" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4507,7 +4609,7 @@
       <c r="P31" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4545,7 +4647,7 @@
       <c r="P32" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="1" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4580,7 +4682,7 @@
       <c r="P33" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4615,7 +4717,7 @@
       <c r="O34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="R34" s="1" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4694,7 +4796,7 @@
       <c r="P36" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="R36" s="1" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4726,7 +4828,7 @@
       <c r="O37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4758,7 +4860,7 @@
       <c r="O38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="R38" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4793,7 +4895,7 @@
       <c r="O39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="R39" s="1" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4834,7 +4936,7 @@
       <c r="P40" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="1" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4904,7 +5006,7 @@
       <c r="O42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P42" s="5" t="s">
+      <c r="P42" s="1" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5111,7 +5213,7 @@
       <c r="O48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R48" s="5" t="s">
+      <c r="R48" s="1" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5190,7 +5292,7 @@
       <c r="O50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R50" s="5" t="s">
+      <c r="R50" s="1" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5231,7 +5333,7 @@
       <c r="P51" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="R51" s="5" t="s">
+      <c r="R51" s="1" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5272,7 +5374,7 @@
       <c r="P52" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="R52" s="5" t="s">
+      <c r="R52" s="1" t="s">
         <v>372</v>
       </c>
     </row>
@@ -5316,11 +5418,11 @@
       <c r="P53" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="R53" s="5" t="s">
+      <c r="R53" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="54" ht="99.75">
+    <row r="54" ht="71.25">
       <c r="A54" s="2" t="s">
         <v>379</v>
       </c>
@@ -5357,10 +5459,10 @@
       <c r="O54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P54" s="5" t="s">
+      <c r="P54" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="R54" s="5" t="s">
+      <c r="R54" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5401,7 +5503,7 @@
       <c r="P55" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="R55" s="5" t="s">
+      <c r="R55" s="1" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5439,7 +5541,7 @@
       <c r="O56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="R56" s="1" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5519,7 +5621,7 @@
       <c r="P58" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="R58" s="5" t="s">
+      <c r="R58" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5657,31 +5759,34 @@
         <v>433</v>
       </c>
       <c r="Q62" s="1"/>
+      <c r="R62" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="63" ht="213.75">
       <c r="A63" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -5690,21 +5795,24 @@
         <v>36</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="64" ht="42.75">
       <c r="A64" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>218</v>
@@ -5713,13 +5821,13 @@
         <v>219</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
@@ -5731,24 +5839,27 @@
         <v>38</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G65" t="s">
         <v>414</v>
@@ -5763,27 +5874,30 @@
         <v>44</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R65" s="1" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="G66" t="s">
         <v>414</v>
@@ -5798,24 +5912,27 @@
         <v>44</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R66" s="1" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>78</v>
@@ -5830,27 +5947,30 @@
         <v>79</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R67" s="1" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>414</v>
@@ -5868,13 +5988,16 @@
       <c r="O68" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R68" s="1" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>218</v>
@@ -5883,10 +6006,10 @@
         <v>219</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -5895,18 +6018,21 @@
         <v>250</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R69" s="1" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>238</v>
@@ -5916,7 +6042,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>78</v>
@@ -5931,7 +6057,7 @@
         <v>44</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>58</v>
@@ -5939,19 +6065,19 @@
     </row>
     <row r="71" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>78</v>
@@ -5966,36 +6092,39 @@
         <v>79</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
@@ -6004,36 +6133,39 @@
         <v>36</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="G73" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
@@ -6042,18 +6174,21 @@
         <v>36</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R73" s="1" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>218</v>
@@ -6074,21 +6209,24 @@
         <v>79</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R74" s="1" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>218</v>
@@ -6121,28 +6259,31 @@
       <c r="P75" s="1" t="s">
         <v>414</v>
       </c>
+      <c r="R75" s="1" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" s="2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -6150,34 +6291,40 @@
       <c r="J76" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="K76" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="N76" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
@@ -6185,22 +6332,28 @@
       <c r="J77" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="K77" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="N77" s="1" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>518</v>
+        <v>531</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>20</v>
@@ -6212,10 +6365,10 @@
         <v>22</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
@@ -6224,21 +6377,24 @@
         <v>25</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R78" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>20</v>
@@ -6250,10 +6406,10 @@
         <v>22</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="I79" s="1">
         <v>1</v>
@@ -6262,10 +6418,10 @@
         <v>25</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>58</v>
@@ -6273,7 +6429,7 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>414</v>
@@ -6298,7 +6454,7 @@
         <v>414</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="L80" s="1"/>
       <c r="N80" s="1"/>
@@ -6308,13 +6464,16 @@
       <c r="P80" s="1" t="s">
         <v>414</v>
       </c>
+      <c r="R80" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>20</v>
@@ -6326,10 +6485,10 @@
         <v>22</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -6338,10 +6497,10 @@
         <v>25</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>58</v>
@@ -6349,10 +6508,10 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>20</v>
@@ -6364,13 +6523,13 @@
         <v>22</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
@@ -6379,39 +6538,42 @@
         <v>25</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>546</v>
+        <v>562</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
@@ -6420,36 +6582,39 @@
         <v>25</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>556</v>
+        <v>573</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>78</v>
@@ -6458,42 +6623,45 @@
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="O84" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>556</v>
+        <v>573</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>78</v>
@@ -6502,42 +6670,45 @@
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>556</v>
+        <v>573</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
@@ -6546,21 +6717,24 @@
         <v>44</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>574</v>
+        <v>591</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>218</v>
@@ -6569,10 +6743,10 @@
         <v>247</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
@@ -6586,10 +6760,10 @@
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>218</v>
@@ -6598,10 +6772,10 @@
         <v>247</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -6613,15 +6787,18 @@
         <v>69</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>583</v>
+        <v>601</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89" s="2" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>218</v>
@@ -6630,7 +6807,7 @@
         <v>247</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>319</v>
@@ -6644,25 +6821,26 @@
       <c r="O89" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R89" s="1"/>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
@@ -6673,25 +6851,28 @@
       <c r="O90" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R90" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
@@ -6702,19 +6883,22 @@
       <c r="O91" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R91" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="1" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>78</v>
@@ -6726,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>58</v>
@@ -6734,22 +6918,22 @@
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="1" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I93" s="1">
         <v>0</v>
@@ -6763,22 +6947,22 @@
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="1" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I94" s="1">
         <v>0</v>
@@ -6792,22 +6976,22 @@
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="1" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
@@ -6816,7 +7000,7 @@
         <v>36</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>58</v>
@@ -6824,22 +7008,22 @@
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="1" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I96" s="1">
         <v>0</v>
@@ -6848,7 +7032,7 @@
         <v>36</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>58</v>
@@ -6856,22 +7040,22 @@
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="1" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
@@ -6885,22 +7069,22 @@
     </row>
     <row r="98" ht="14.25">
       <c r="A98" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="G98" s="1" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I98" s="1">
         <v>0</v>
@@ -6909,7 +7093,7 @@
         <v>36</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>58</v>
@@ -6917,22 +7101,22 @@
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -6946,22 +7130,22 @@
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="1" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I100" s="1">
         <v>0</v>
@@ -6975,10 +7159,10 @@
     </row>
     <row r="101" ht="14.25">
       <c r="A101" s="1" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>218</v>
@@ -6988,10 +7172,10 @@
       </c>
       <c r="E101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
@@ -7004,25 +7188,28 @@
         <v>58</v>
       </c>
       <c r="P101" s="1"/>
+      <c r="R101" s="1" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="1" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -7031,30 +7218,33 @@
         <v>36</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="O102" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R102" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="1" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
@@ -7065,10 +7255,13 @@
       <c r="O103" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R103" s="1" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>414</v>
@@ -7101,15 +7294,18 @@
         <v>69</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>642</v>
+        <v>664</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="105" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>218</v>
@@ -7118,10 +7314,10 @@
         <v>247</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="I105" s="1">
         <v>0</v>
@@ -7133,12 +7329,15 @@
         <v>69</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>647</v>
+        <v>670</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="106" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>414</v>
@@ -7167,19 +7366,22 @@
       <c r="P106" s="1" t="s">
         <v>414</v>
       </c>
+      <c r="R106" s="1" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>414</v>
@@ -7199,25 +7401,28 @@
       <c r="P107" s="1" t="s">
         <v>414</v>
       </c>
+      <c r="R107" s="1" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -7226,21 +7431,24 @@
         <v>25</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R108" s="1" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>207</v>
@@ -7250,10 +7458,10 @@
       </c>
       <c r="E109" s="1"/>
       <c r="G109" s="1" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
@@ -7269,13 +7477,16 @@
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
+      <c r="R109" s="1" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>207</v>
@@ -7302,13 +7513,16 @@
         <v>58</v>
       </c>
       <c r="P110" s="1"/>
+      <c r="R110" s="1" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="111" ht="14.25">
       <c r="A111" s="2" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>218</v>
@@ -7317,10 +7531,10 @@
         <v>219</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -7334,13 +7548,16 @@
         <v>58</v>
       </c>
       <c r="P111" s="1"/>
+      <c r="R111" s="1" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>31</v>
@@ -7352,7 +7569,7 @@
         <v>33</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>35</v>
@@ -7371,28 +7588,31 @@
       <c r="O112" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="R112" s="1" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="113" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>674</v>
+        <v>703</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>675</v>
+        <v>704</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="I113" s="1">
         <v>0</v>
@@ -7402,37 +7622,40 @@
       </c>
       <c r="K113" s="1"/>
       <c r="N113" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="O113" s="5" t="s">
-        <v>680</v>
+        <v>708</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>682</v>
+        <v>711</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="114" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="E114" s="1"/>
       <c r="G114" s="1" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
@@ -7441,25 +7664,28 @@
         <v>36</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="L114" s="1"/>
       <c r="N114" s="1" t="s">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>691</v>
+        <v>721</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="115" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>272</v>
@@ -7469,10 +7695,10 @@
       </c>
       <c r="E115" s="1"/>
       <c r="G115" s="1" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -7487,13 +7713,16 @@
         <v>58</v>
       </c>
       <c r="P115" s="1"/>
+      <c r="R115" s="1" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="116" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>272</v>
@@ -7503,10 +7732,10 @@
       </c>
       <c r="E116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -7520,13 +7749,16 @@
         <v>58</v>
       </c>
       <c r="P116" s="1"/>
+      <c r="R116" s="1" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="117" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>20</v>
@@ -7536,10 +7768,10 @@
       </c>
       <c r="E117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
@@ -7554,13 +7786,16 @@
         <v>58</v>
       </c>
       <c r="P117" s="1"/>
+      <c r="R117" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="118" ht="14.25">
       <c r="A118" s="2" t="s">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>31</v>
@@ -7572,10 +7807,10 @@
         <v>33</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="I118" s="1">
         <v>1</v>
@@ -7593,12 +7828,15 @@
         <v>69</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>707</v>
+        <v>740</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="119" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>414</v>
@@ -7607,10 +7845,10 @@
         <v>207</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>709</v>
+        <v>743</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>710</v>
+        <v>744</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>414</v>
@@ -7637,7 +7875,7 @@
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>414</v>
@@ -7659,7 +7897,7 @@
         <v>414</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="O120" s="1" t="s">
         <v>414</v>
@@ -7670,7 +7908,7 @@
     </row>
     <row r="121" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>414</v>
@@ -7691,7 +7929,7 @@
         <v>414</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>414</v>
@@ -7702,7 +7940,7 @@
     </row>
     <row r="122" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>414</v>
@@ -7723,7 +7961,7 @@
         <v>414</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="O122" s="1" t="s">
         <v>414</v>
@@ -7734,7 +7972,7 @@
     </row>
     <row r="123" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>414</v>
@@ -7755,7 +7993,7 @@
         <v>414</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="O123" s="1" t="s">
         <v>414</v>
@@ -7766,7 +8004,7 @@
     </row>
     <row r="124" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>414</v>
@@ -7787,7 +8025,7 @@
         <v>414</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="O124" s="1" t="s">
         <v>414</v>
@@ -7798,7 +8036,7 @@
     </row>
     <row r="125" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>414</v>
@@ -7819,7 +8057,7 @@
         <v>414</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="O125" s="1" t="s">
         <v>414</v>
@@ -7830,7 +8068,7 @@
     </row>
     <row r="126" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>414</v>
@@ -7851,7 +8089,7 @@
         <v>414</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>414</v>
@@ -7862,7 +8100,7 @@
     </row>
     <row r="127" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>414</v>
@@ -7883,7 +8121,7 @@
         <v>414</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="O127" s="1" t="s">
         <v>414</v>
@@ -7894,7 +8132,7 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>414</v>
@@ -7915,7 +8153,7 @@
         <v>414</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>414</v>
@@ -7926,7 +8164,7 @@
     </row>
     <row r="129" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>722</v>
+        <v>756</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>414</v>
@@ -7947,7 +8185,7 @@
         <v>414</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>414</v>
@@ -7958,7 +8196,7 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>723</v>
+        <v>757</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>414</v>
@@ -7979,7 +8217,7 @@
         <v>414</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="O130" s="1" t="s">
         <v>414</v>
@@ -7990,7 +8228,7 @@
     </row>
     <row r="131" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>724</v>
+        <v>758</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>414</v>
@@ -8011,7 +8249,7 @@
         <v>414</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>414</v>
@@ -8022,7 +8260,7 @@
     </row>
     <row r="132" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>414</v>
@@ -8043,7 +8281,7 @@
         <v>414</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>414</v>
@@ -8054,7 +8292,7 @@
     </row>
     <row r="133" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>414</v>
@@ -8075,7 +8313,7 @@
         <v>414</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>414</v>
@@ -8086,7 +8324,7 @@
     </row>
     <row r="134" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>727</v>
+        <v>761</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>414</v>
@@ -8107,7 +8345,7 @@
         <v>414</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="O134" s="1" t="s">
         <v>414</v>
@@ -8118,7 +8356,7 @@
     </row>
     <row r="135" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>414</v>
@@ -8139,7 +8377,7 @@
         <v>414</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>414</v>
@@ -8150,7 +8388,7 @@
     </row>
     <row r="136" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>730</v>
+        <v>764</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>414</v>
@@ -8171,7 +8409,7 @@
         <v>414</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>414</v>
@@ -8182,7 +8420,7 @@
     </row>
     <row r="137" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>731</v>
+        <v>765</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>414</v>
@@ -8203,7 +8441,7 @@
         <v>414</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>414</v>
@@ -8214,7 +8452,7 @@
     </row>
     <row r="138" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>732</v>
+        <v>766</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>414</v>
@@ -8235,7 +8473,7 @@
         <v>414</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>414</v>
@@ -8246,7 +8484,7 @@
     </row>
     <row r="139" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>414</v>
@@ -8267,7 +8505,7 @@
         <v>414</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>414</v>
@@ -8278,7 +8516,7 @@
     </row>
     <row r="140" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>414</v>
@@ -8300,7 +8538,7 @@
       </c>
       <c r="K140" s="1"/>
       <c r="N140" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>414</v>
@@ -8311,7 +8549,7 @@
     </row>
     <row r="141" ht="14.25">
       <c r="A141" s="2" t="s">
-        <v>735</v>
+        <v>769</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>414</v>
@@ -8332,10 +8570,10 @@
         <v>414</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>414</v>
@@ -8346,7 +8584,7 @@
     </row>
     <row r="142" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>414</v>
@@ -8367,7 +8605,7 @@
         <v>414</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>414</v>
@@ -8378,7 +8616,7 @@
     </row>
     <row r="143" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>738</v>
+        <v>772</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>414</v>
@@ -8399,7 +8637,7 @@
         <v>414</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>414</v>
@@ -8410,7 +8648,7 @@
     </row>
     <row r="144" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>739</v>
+        <v>773</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>414</v>
@@ -8431,7 +8669,7 @@
         <v>414</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O144" s="1" t="s">
         <v>414</v>
@@ -8442,7 +8680,7 @@
     </row>
     <row r="145" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>414</v>
@@ -8463,7 +8701,7 @@
         <v>414</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O145" s="1" t="s">
         <v>414</v>
@@ -8474,7 +8712,7 @@
     </row>
     <row r="146" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>414</v>
@@ -8495,7 +8733,7 @@
         <v>414</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O146" s="1" t="s">
         <v>414</v>
@@ -8506,7 +8744,7 @@
     </row>
     <row r="147" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>414</v>
@@ -8527,7 +8765,7 @@
         <v>414</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O147" s="1" t="s">
         <v>414</v>
@@ -8538,7 +8776,7 @@
     </row>
     <row r="148" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>743</v>
+        <v>777</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>414</v>
@@ -8559,7 +8797,7 @@
         <v>414</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O148" s="1" t="s">
         <v>414</v>
@@ -8570,7 +8808,7 @@
     </row>
     <row r="149" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>744</v>
+        <v>778</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>414</v>
@@ -8591,7 +8829,7 @@
         <v>414</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>414</v>
@@ -8602,7 +8840,7 @@
     </row>
     <row r="150" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>745</v>
+        <v>779</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>414</v>
@@ -8623,7 +8861,7 @@
         <v>414</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>414</v>
@@ -8634,7 +8872,7 @@
     </row>
     <row r="151" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>746</v>
+        <v>780</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>414</v>
@@ -8655,7 +8893,7 @@
         <v>414</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>414</v>
@@ -8666,7 +8904,7 @@
     </row>
     <row r="152" ht="14.25">
       <c r="A152" s="2" t="s">
-        <v>747</v>
+        <v>781</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>414</v>
@@ -8687,7 +8925,7 @@
         <v>414</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>414</v>
@@ -8698,7 +8936,7 @@
     </row>
     <row r="153" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>748</v>
+        <v>782</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>414</v>
@@ -8719,7 +8957,7 @@
         <v>414</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>414</v>
@@ -8730,7 +8968,7 @@
     </row>
     <row r="154" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>414</v>
@@ -8751,7 +8989,7 @@
         <v>414</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O154" s="1" t="s">
         <v>414</v>
@@ -8762,7 +9000,7 @@
     </row>
     <row r="155" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>750</v>
+        <v>784</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>414</v>
@@ -8783,7 +9021,7 @@
         <v>414</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O155" s="1" t="s">
         <v>414</v>
@@ -8794,7 +9032,7 @@
     </row>
     <row r="156" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>751</v>
+        <v>785</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>414</v>
@@ -8815,7 +9053,7 @@
         <v>414</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>414</v>
@@ -8826,7 +9064,7 @@
     </row>
     <row r="157" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>752</v>
+        <v>786</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>414</v>
@@ -8847,7 +9085,7 @@
         <v>414</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>414</v>
@@ -8858,7 +9096,7 @@
     </row>
     <row r="158" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>753</v>
+        <v>787</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>414</v>
@@ -8879,7 +9117,7 @@
         <v>414</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O158" s="1" t="s">
         <v>414</v>
@@ -8890,7 +9128,7 @@
     </row>
     <row r="159" ht="14.25">
       <c r="A159" s="2" t="s">
-        <v>754</v>
+        <v>788</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>414</v>
@@ -8911,7 +9149,7 @@
         <v>414</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>414</v>
@@ -8922,7 +9160,7 @@
     </row>
     <row r="160" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>755</v>
+        <v>789</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>414</v>
@@ -8943,7 +9181,7 @@
         <v>414</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>414</v>
@@ -8954,7 +9192,7 @@
     </row>
     <row r="161" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>414</v>
@@ -8975,7 +9213,7 @@
         <v>414</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>414</v>
@@ -8986,7 +9224,7 @@
     </row>
     <row r="162" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>414</v>
@@ -9007,7 +9245,7 @@
         <v>414</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O162" s="1" t="s">
         <v>414</v>
@@ -9018,7 +9256,7 @@
     </row>
     <row r="163" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>758</v>
+        <v>792</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>414</v>
@@ -9039,7 +9277,7 @@
         <v>414</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O163" s="1" t="s">
         <v>414</v>
@@ -9050,7 +9288,7 @@
     </row>
     <row r="164" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>759</v>
+        <v>793</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>414</v>
@@ -9071,7 +9309,7 @@
         <v>414</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>414</v>
@@ -9082,7 +9320,7 @@
     </row>
     <row r="165" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>760</v>
+        <v>794</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>414</v>
@@ -9103,7 +9341,7 @@
         <v>414</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O165" s="1" t="s">
         <v>414</v>
@@ -9114,7 +9352,7 @@
     </row>
     <row r="166" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>761</v>
+        <v>795</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>414</v>
@@ -9135,7 +9373,7 @@
         <v>414</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O166" s="1" t="s">
         <v>414</v>
@@ -9146,7 +9384,7 @@
     </row>
     <row r="167" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>762</v>
+        <v>796</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>414</v>
@@ -9167,7 +9405,7 @@
         <v>414</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>414</v>
@@ -9178,28 +9416,28 @@
     </row>
     <row r="168" ht="14.25">
       <c r="A168" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N168" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="N168" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="O168" s="1" t="s">
         <v>414</v>
@@ -9210,7 +9448,7 @@
     </row>
     <row r="169" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>764</v>
+        <v>798</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>414</v>
@@ -9231,7 +9469,7 @@
         <v>414</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O169" s="1" t="s">
         <v>414</v>
@@ -9242,7 +9480,7 @@
     </row>
     <row r="170" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>765</v>
+        <v>799</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>414</v>
@@ -9263,7 +9501,7 @@
         <v>414</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O170" s="1" t="s">
         <v>414</v>
@@ -9274,7 +9512,7 @@
     </row>
     <row r="171" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>414</v>
@@ -9295,7 +9533,7 @@
         <v>414</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>414</v>
@@ -9306,7 +9544,7 @@
     </row>
     <row r="172" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>767</v>
+        <v>801</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>414</v>
@@ -9327,7 +9565,7 @@
         <v>414</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>414</v>
@@ -9338,7 +9576,7 @@
     </row>
     <row r="173" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>414</v>
@@ -9359,7 +9597,7 @@
         <v>414</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>414</v>
@@ -9370,7 +9608,7 @@
     </row>
     <row r="174" ht="14.25">
       <c r="A174" s="2" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>414</v>
@@ -9391,7 +9629,7 @@
         <v>414</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>414</v>
@@ -9402,7 +9640,7 @@
     </row>
     <row r="175" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>770</v>
+        <v>804</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>414</v>
@@ -9423,7 +9661,7 @@
         <v>414</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>414</v>
@@ -9434,7 +9672,7 @@
     </row>
     <row r="176" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>771</v>
+        <v>805</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>414</v>
@@ -9455,7 +9693,7 @@
         <v>414</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>414</v>
@@ -9466,7 +9704,7 @@
     </row>
     <row r="177" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>414</v>
@@ -9487,7 +9725,7 @@
         <v>414</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>414</v>
@@ -9498,7 +9736,7 @@
     </row>
     <row r="178" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>773</v>
+        <v>807</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>414</v>
@@ -9519,7 +9757,7 @@
         <v>414</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>414</v>
@@ -9530,7 +9768,7 @@
     </row>
     <row r="179" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>414</v>
@@ -9551,7 +9789,7 @@
         <v>414</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>414</v>
